--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1683000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1812000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1663000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1822000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1543000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1662000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1651000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1691000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1579000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1586000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1402000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1422000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1399000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1373000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1632000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1589000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1686000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1493000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1549000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1529000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1575000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1407000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1452000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1254000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1293000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1261000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1235000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>180000</v>
+      </c>
+      <c r="F10" s="3">
         <v>74000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>136000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>50000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>113000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>122000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>116000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>172000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>134000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>148000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>129000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>138000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>138000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1620000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1721000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1669000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1769000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1577000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1619000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1614000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1659000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1482000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1545000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1331000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1368000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1333000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1305000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>53000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-34000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>43000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>37000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>32000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>97000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>41000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>71000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>54000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>66000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>68000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-232000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>86000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>28000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>105000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-171000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>35000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-35000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>76000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>62000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>37000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>49000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>57000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>212000</v>
+      </c>
+      <c r="F21" s="3">
         <v>26000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>115000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>105000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-95000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>106000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>57000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>94000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>147000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>165000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>120000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>142000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>153000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
         <v>9000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G22" s="3">
         <v>12000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>6000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>13000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>12000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>11000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>8000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>10000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>9000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>7000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>6000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>168000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-18000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>69000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>65000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-141000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>60000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>11000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>54000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>107000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>124000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>84000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>112000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>119000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>11000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>8000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-65000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>26000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>4000</v>
       </c>
       <c r="J24" s="3">
         <v>26000</v>
       </c>
       <c r="K24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>26000</v>
+      </c>
+      <c r="M24" s="3">
         <v>-27000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>43000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>25000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>28000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>15000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>175000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>58000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>57000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-76000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>34000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>28000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>134000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>81000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>59000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>84000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>104000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>175000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>58000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>57000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-77000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>35000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>28000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>135000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>81000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>58000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>85000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>103000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,26 +1709,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-14000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>4000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-28000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-105000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>171000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-35000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>35000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-76000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-62000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-37000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-49000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-57000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>175000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>58000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>57000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-91000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>35000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>32000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>23000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>81000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>58000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>85000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>103000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>175000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>58000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>57000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-91000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>35000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>32000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>23000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>81000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>58000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>85000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>103000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>125000</v>
+      </c>
+      <c r="F41" s="3">
         <v>121000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>110000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>59000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>194000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>78000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>79000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>116000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>61000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>70000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>43000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>77000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1125000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="F42" s="3">
         <v>1418000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1440000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1488000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1336000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1590000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1266000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1265000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1576000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1358000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1391000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1286000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1277000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>691000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>646000</v>
+      </c>
+      <c r="F43" s="3">
         <v>529000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>546000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>504000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>551000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>506000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>521000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>608000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>482000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>622000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>605000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>606000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>627000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1122000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1022000</v>
+      </c>
+      <c r="F44" s="3">
         <v>916000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>871000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>988000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>815000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>874000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>874000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>797000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>780000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>828000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>722000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>842000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>762000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>123000</v>
+      </c>
+      <c r="F45" s="3">
         <v>112000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>107000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>143000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>131000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>124000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>126000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>133000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>174000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>120000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>119000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>109000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>105000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3154000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3350000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3096000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3074000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3182000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3027000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3172000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2866000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2903000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3128000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2989000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2907000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2886000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2848000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>735000</v>
+      </c>
+      <c r="F47" s="3">
         <v>734000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>783000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>789000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>804000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>823000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>849000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>866000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>851000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>863000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>843000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>805000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>799000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1919000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1877000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1801000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1741000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1696000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1160000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1098000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1104000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1126000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1077000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1064000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1034000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1024000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1006000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>222000</v>
+      </c>
+      <c r="F49" s="3">
         <v>165000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>165000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>166000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>236000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>22000</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>22000</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>22000</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>101000</v>
+      </c>
+      <c r="F52" s="3">
         <v>150000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>138000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>143000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>80000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>342000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>357000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>360000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>83000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>77000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>78000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>93000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>80000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6155000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6285000</v>
+      </c>
+      <c r="F54" s="3">
         <v>5946000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5901000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5976000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5307000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5435000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5176000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5255000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5161000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4993000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4862000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4808000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4755000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>368000</v>
+      </c>
+      <c r="F57" s="3">
         <v>235000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>262000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>297000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>238000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>227000</v>
       </c>
       <c r="I57" s="3">
         <v>238000</v>
       </c>
       <c r="J57" s="3">
+        <v>227000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>238000</v>
+      </c>
+      <c r="L57" s="3">
         <v>221000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>272000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>190000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>188000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>163000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>216000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>313000</v>
+      </c>
+      <c r="F58" s="3">
         <v>272000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>216000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>305000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>187000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>172000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>165000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>221000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>215000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>147000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>160000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>160000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>138000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>488000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>508000</v>
+      </c>
+      <c r="F59" s="3">
         <v>452000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>427000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>434000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>359000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>370000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>339000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>345000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>331000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>438000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>393000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>431000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>431000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1274000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1189000</v>
+      </c>
+      <c r="F60" s="3">
         <v>959000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>905000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1036000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>784000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>769000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>742000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>787000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>818000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>775000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>741000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>754000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>785000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>770000</v>
+      </c>
+      <c r="F61" s="3">
         <v>763000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>751000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>735000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>739000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>741000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>508000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>522000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>482000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>490000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>495000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>499000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>499000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>772000</v>
+      </c>
+      <c r="F62" s="3">
         <v>814000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>826000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>835000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>455000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>499000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>508000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>513000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>453000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>332000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>308000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>298000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>296000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2728000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2741000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2546000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2492000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2616000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1989000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2023000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1773000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1837000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1764000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1610000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1557000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1563000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1593000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3861000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3983000</v>
+      </c>
+      <c r="F72" s="3">
         <v>3811000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3823000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3768000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3727000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3825000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3792000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3787000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3750000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3683000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3604000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3548000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3465000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3427000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3544000</v>
+      </c>
+      <c r="F76" s="3">
         <v>3400000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3409000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3360000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3318000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3412000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3403000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3418000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3397000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3383000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3305000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3245000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3162000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>175000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>58000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>57000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-91000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>35000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>32000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>23000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>81000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>58000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>85000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>103000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E83" s="3">
         <v>35000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G83" s="3">
         <v>34000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>34000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>33000</v>
       </c>
       <c r="H83" s="3">
         <v>34000</v>
       </c>
       <c r="I83" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K83" s="3">
         <v>35000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>32000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>30000</v>
       </c>
       <c r="L83" s="3">
         <v>32000</v>
       </c>
       <c r="M83" s="3">
+        <v>30000</v>
+      </c>
+      <c r="N83" s="3">
+        <v>32000</v>
+      </c>
+      <c r="O83" s="3">
         <v>29000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>27000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>28000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>101000</v>
+      </c>
+      <c r="F89" s="3">
         <v>31000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>146000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-107000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>72000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>102000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>56000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>8000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>47000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>21000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>183000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-6000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>128000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-105000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-73000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-83000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-67000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-37000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-22000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-36000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-55000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-40000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-42000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-36000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-30000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-69000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-127000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>37000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-340000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-17000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-29000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-50000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-156000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-45000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-139000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-2000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-3000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2000</v>
       </c>
       <c r="J96" s="3">
         <v>-2000</v>
       </c>
       <c r="K96" s="3">
-        <v>-1000</v>
+        <v>-2000</v>
       </c>
       <c r="L96" s="3">
         <v>-2000</v>
       </c>
       <c r="M96" s="3">
-        <v>-2000</v>
+        <v>-1000</v>
       </c>
       <c r="N96" s="3">
         <v>-2000</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-2000</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="F100" s="3">
         <v>49000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-96000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>99000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>240000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-60000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>59000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-16000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>19000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-26000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F102" s="3">
         <v>11000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>51000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-135000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>116000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-21000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-16000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>55000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-9000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>27000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-34000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-36000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1808000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1683000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1812000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1663000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1822000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1543000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1662000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1651000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1691000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1579000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1586000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1402000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1422000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1399000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1373000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1717000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1548000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1632000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1589000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1686000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1493000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1549000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1529000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1575000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1407000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1452000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1254000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1293000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1261000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1235000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E10" s="3">
         <v>135000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>180000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>74000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>136000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>50000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>113000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>122000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>116000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>172000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>134000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>148000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>129000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>138000</v>
       </c>
       <c r="Q10" s="3">
         <v>138000</v>
       </c>
       <c r="R10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="S10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1797000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1620000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1721000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1669000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1769000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1577000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1619000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1614000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1659000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1482000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1545000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1331000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1368000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1333000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1305000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E18" s="3">
         <v>63000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>91000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>53000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>37000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>97000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>41000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>71000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>54000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>66000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>68000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-232000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>86000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>28000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>105000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-171000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>35000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-35000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>76000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>62000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>37000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>49000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>57000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-133000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>212000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>115000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>105000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-95000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>106000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>57000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>94000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>147000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>165000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>120000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>142000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>153000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>9000</v>
       </c>
       <c r="F22" s="3">
         <v>9000</v>
       </c>
       <c r="G22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H22" s="3">
         <v>12000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-174000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>168000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>69000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>65000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-141000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>60000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>54000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>107000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>124000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>84000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>112000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>119000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-71000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-11000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-65000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>26000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-27000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>43000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-103000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>175000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>58000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>57000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-76000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>28000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>134000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>81000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>59000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>84000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>104000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-103000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>175000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>58000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>57000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-77000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>135000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>81000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>58000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>85000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>103000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,23 +1776,23 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-14000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>4000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E32" s="3">
         <v>232000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-86000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-28000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-105000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>171000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-35000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>35000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-76000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-62000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-37000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-49000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-57000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-103000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>175000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>58000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>57000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-91000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>81000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>58000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>85000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>103000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-103000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>175000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>58000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>57000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-91000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>81000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>58000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>85000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>103000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,431 +2226,456 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E41" s="3">
         <v>101000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>125000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>121000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>110000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>59000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>194000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>78000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>79000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>116000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>61000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>70000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>43000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>77000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1177000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1125000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1434000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1418000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1440000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1488000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1336000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1590000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1266000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1265000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1576000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1358000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1391000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1286000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1277000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>551000</v>
+      </c>
+      <c r="E43" s="3">
         <v>691000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>646000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>529000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>546000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>504000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>551000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>506000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>521000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>608000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>482000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>622000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>605000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>606000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>627000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>989000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1122000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1022000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>916000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>871000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>988000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>815000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>874000</v>
       </c>
       <c r="K44" s="3">
         <v>874000</v>
       </c>
       <c r="L44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="M44" s="3">
         <v>797000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>780000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>828000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>722000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>842000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>762000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E45" s="3">
         <v>115000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>123000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>112000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>107000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>143000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>131000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>124000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>126000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>133000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>174000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>120000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>119000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>109000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>105000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2914000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3154000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3350000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3096000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3074000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3182000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3027000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3172000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2866000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2903000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3128000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2989000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2907000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2886000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2848000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>706000</v>
+      </c>
+      <c r="E47" s="3">
         <v>731000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>735000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>734000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>783000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>789000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>804000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>823000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>849000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>866000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>851000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>863000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>843000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>805000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>799000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1908000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1919000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1877000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1801000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1741000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1696000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1160000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1098000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1104000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1126000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1077000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1064000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1034000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1024000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1006000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E49" s="3">
         <v>164000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>222000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>165000</v>
       </c>
       <c r="G49" s="3">
         <v>165000</v>
       </c>
       <c r="H49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="I49" s="3">
         <v>166000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>236000</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2572,11 +2683,11 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>22000</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -2584,14 +2695,17 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>22000</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E52" s="3">
         <v>187000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>101000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>150000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>138000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>143000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>80000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>342000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>357000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>360000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>83000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>77000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>78000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>93000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>80000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5873000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6155000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6285000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5946000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5901000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5976000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5307000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5435000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5176000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5255000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5161000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4993000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4862000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4808000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4755000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,258 +3010,274 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E57" s="3">
         <v>336000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>368000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>235000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>262000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>297000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>238000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>227000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>238000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>221000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>272000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>190000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>188000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>163000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>216000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E58" s="3">
         <v>450000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>313000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>272000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>216000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>305000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>187000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>172000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>165000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>221000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>215000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>147000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>160000</v>
       </c>
       <c r="P58" s="3">
         <v>160000</v>
       </c>
       <c r="Q58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="R58" s="3">
         <v>138000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E59" s="3">
         <v>488000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>508000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>452000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>427000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>434000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>359000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>370000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>339000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>345000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>331000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>438000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>393000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>431000</v>
       </c>
       <c r="Q59" s="3">
         <v>431000</v>
       </c>
       <c r="R59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="S59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1022000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1274000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1189000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>959000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>905000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1036000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>784000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>769000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>742000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>787000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>818000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>775000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>741000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>754000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>785000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E61" s="3">
         <v>732000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>770000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>763000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>751000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>735000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>739000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>741000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>508000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>522000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>482000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>490000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>495000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>499000</v>
       </c>
       <c r="Q61" s="3">
         <v>499000</v>
       </c>
       <c r="R61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="S61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3139,49 +3285,52 @@
         <v>712000</v>
       </c>
       <c r="E62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="F62" s="3">
         <v>772000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>814000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>826000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>835000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>455000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>499000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>508000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>513000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>453000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>332000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>308000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>298000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>296000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2493000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2728000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2741000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2546000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2492000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2616000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1989000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2023000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1773000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1837000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1764000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1610000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1557000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1563000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1593000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3833000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3861000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3983000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3811000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3823000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3768000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3727000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3825000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3792000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3787000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3750000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3683000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3604000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3548000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3465000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3380000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3427000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3544000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3400000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3409000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3360000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3318000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3412000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3403000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3418000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3397000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3383000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3305000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3245000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3162000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-103000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>175000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>58000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>57000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-91000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>81000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>58000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>85000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>103000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,49 +4233,52 @@
         <v>36000</v>
       </c>
       <c r="E83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="F83" s="3">
         <v>35000</v>
       </c>
       <c r="G83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="H83" s="3">
         <v>34000</v>
       </c>
       <c r="I83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="J83" s="3">
         <v>33000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-106000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>101000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>146000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-107000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>72000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>102000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>56000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>47000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>183000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>128000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-55000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-88000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-105000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-73000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-83000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-67000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-42000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E94" s="3">
         <v>6000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-58000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-127000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>37000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-340000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-156000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-139000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,31 +4848,32 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="E96" s="3">
         <v>-3000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="G96" s="3">
         <v>-2000</v>
       </c>
       <c r="H96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2000</v>
       </c>
       <c r="K96" s="3">
         <v>-2000</v>
@@ -4648,10 +4882,10 @@
         <v>-2000</v>
       </c>
       <c r="M96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-2000</v>
       </c>
       <c r="O96" s="3">
         <v>-2000</v>
@@ -4660,13 +4894,16 @@
         <v>-2000</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,70 +5058,76 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E100" s="3">
         <v>77000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-41000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>49000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-96000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>99000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>240000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-60000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>59000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>19000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-26000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -4886,83 +5135,89 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>51000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-135000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>116000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>55000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>27000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-36000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1645000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1808000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1683000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1812000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1663000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1822000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1543000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1662000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1651000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1691000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1579000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1586000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1402000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1422000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1399000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1373000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1527000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1717000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1548000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1632000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1589000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1686000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1493000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1549000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1529000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1575000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1407000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1452000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1254000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1293000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1261000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1235000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E10" s="3">
         <v>91000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>135000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>180000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>74000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>136000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>50000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>113000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>122000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>116000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>172000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>134000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>148000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>129000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>138000</v>
       </c>
       <c r="R10" s="3">
         <v>138000</v>
       </c>
       <c r="S10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="T10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1616000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1797000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1620000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1721000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1669000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1769000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1577000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1619000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1614000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1659000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1482000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1545000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1331000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1368000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1333000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1305000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E18" s="3">
         <v>11000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>63000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>91000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>53000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>43000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>37000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>32000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>97000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>41000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>71000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>54000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>66000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E20" s="3">
         <v>111000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-232000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>86000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>28000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>105000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-171000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>35000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-35000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>76000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>62000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>37000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>49000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>57000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E21" s="3">
         <v>158000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-133000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>212000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>115000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>105000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-95000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>106000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>57000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>94000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>147000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>165000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>120000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>142000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>153000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,158 +1434,167 @@
         <v>6000</v>
       </c>
       <c r="E22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="3">
         <v>5000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>9000</v>
       </c>
       <c r="G22" s="3">
         <v>9000</v>
       </c>
       <c r="H22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I22" s="3">
         <v>12000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E23" s="3">
         <v>116000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-174000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>168000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>69000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>65000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-141000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>60000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>54000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>107000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>124000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>84000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>112000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>119000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E24" s="3">
         <v>142000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-71000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-65000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>26000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-27000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>43000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-103000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>175000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>58000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>57000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-76000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>134000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>81000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>59000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>84000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>104000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-103000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>175000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>58000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>57000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-77000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>135000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>81000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>58000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>85000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>103000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,23 +1840,23 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-14000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>4000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-111000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>232000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-86000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-28000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-105000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>171000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-35000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>35000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-76000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-62000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-49000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-57000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-103000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>175000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>58000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>57000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-91000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>81000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>58000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>85000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>103000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-103000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>175000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>58000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>57000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-91000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>81000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>58000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>85000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>103000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,458 +2313,483 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E41" s="3">
         <v>79000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>101000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>125000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>121000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>110000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>59000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>194000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>78000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>79000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>116000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>61000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>70000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>77000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1245000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1177000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1125000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1434000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1418000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1440000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1488000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1336000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1590000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1266000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1265000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1576000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1358000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1391000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1286000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1277000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E43" s="3">
         <v>551000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>691000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>646000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>529000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>546000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>504000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>551000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>506000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>521000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>608000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>482000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>622000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>605000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>606000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>627000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E44" s="3">
         <v>989000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1122000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1022000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>916000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>871000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>988000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>815000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>874000</v>
       </c>
       <c r="L44" s="3">
         <v>874000</v>
       </c>
       <c r="M44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="N44" s="3">
         <v>797000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>780000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>828000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>722000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>842000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>762000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E45" s="3">
         <v>118000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>115000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>123000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>112000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>107000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>143000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>131000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>124000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>126000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>133000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>174000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>120000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>119000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>109000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>105000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3015000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2914000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3154000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3350000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3096000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3074000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3182000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3027000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3172000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2866000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2903000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3128000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2989000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2907000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2886000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2848000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E47" s="3">
         <v>706000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>731000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>735000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>734000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>783000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>789000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>804000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>823000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>849000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>866000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>851000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>863000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>843000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>805000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>799000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1918000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1908000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1919000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1877000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1801000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1741000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1696000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1160000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1098000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1104000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1126000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1077000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1064000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1034000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1024000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1006000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E49" s="3">
         <v>163000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>164000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>222000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>165000</v>
       </c>
       <c r="H49" s="3">
         <v>165000</v>
       </c>
       <c r="I49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="J49" s="3">
         <v>166000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>236000</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
@@ -2686,11 +2797,11 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>22000</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -2698,14 +2809,17 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>22000</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E52" s="3">
         <v>182000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>187000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>101000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>150000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>138000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>143000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>80000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>342000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>357000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>360000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>83000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>77000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>78000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>93000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>80000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5976000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5873000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6155000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6285000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5946000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5901000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5976000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5307000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5435000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5176000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5255000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5161000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4993000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4862000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4808000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4755000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E57" s="3">
         <v>189000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>336000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>368000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>235000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>262000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>297000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>238000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>227000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>238000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>221000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>272000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>190000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>188000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>163000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>216000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E58" s="3">
         <v>309000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>450000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>313000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>272000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>216000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>305000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>187000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>172000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>165000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>221000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>215000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>147000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>160000</v>
       </c>
       <c r="Q58" s="3">
         <v>160000</v>
       </c>
       <c r="R58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="S58" s="3">
         <v>138000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>463000</v>
+      </c>
+      <c r="E59" s="3">
         <v>524000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>488000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>508000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>452000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>427000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>434000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>359000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>370000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>339000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>345000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>331000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>438000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>393000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>431000</v>
       </c>
       <c r="R59" s="3">
         <v>431000</v>
       </c>
       <c r="S59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="T59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1022000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1274000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1189000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>959000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>905000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1036000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>784000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>769000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>742000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>787000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>818000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>775000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>741000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>754000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>785000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E61" s="3">
         <v>749000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>732000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>770000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>763000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>751000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>735000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>739000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>741000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>508000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>522000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>482000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>490000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>495000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>499000</v>
       </c>
       <c r="R61" s="3">
         <v>499000</v>
       </c>
       <c r="S61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="T61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>712000</v>
+        <v>661000</v>
       </c>
       <c r="E62" s="3">
         <v>712000</v>
       </c>
       <c r="F62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="G62" s="3">
         <v>772000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>814000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>826000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>835000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>455000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>499000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>508000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>513000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>453000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>332000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>308000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>298000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>296000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2441000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2493000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2728000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2741000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2546000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2492000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2616000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1989000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2023000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1773000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1837000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1764000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1610000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1557000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1563000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1593000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3978000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3833000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3861000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3983000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3811000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3823000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3768000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3727000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3825000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3792000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3787000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3750000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3683000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3604000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3548000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3465000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3535000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3380000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3427000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3544000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3400000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3409000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3360000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3318000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3412000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3403000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3418000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3397000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3383000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3305000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3245000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3162000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-103000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>175000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>58000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>57000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-91000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>81000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>58000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>85000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>103000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="E83" s="3">
         <v>36000</v>
       </c>
       <c r="F83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="G83" s="3">
         <v>35000</v>
       </c>
       <c r="H83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="I83" s="3">
         <v>34000</v>
       </c>
       <c r="J83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K83" s="3">
         <v>33000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E89" s="3">
         <v>106000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-106000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>101000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>146000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-107000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>72000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>102000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>56000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>47000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>183000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>128000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-53000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-55000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-88000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-105000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-73000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-83000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-67000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-30000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E94" s="3">
         <v>17000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-58000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-127000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>37000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-340000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-156000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-139000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,25 +5092,25 @@
         <v>-2000</v>
       </c>
       <c r="E96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="F96" s="3">
         <v>-3000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="H96" s="3">
         <v>-2000</v>
       </c>
       <c r="I96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-3000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-2000</v>
       </c>
       <c r="L96" s="3">
         <v>-2000</v>
@@ -4885,10 +5119,10 @@
         <v>-2000</v>
       </c>
       <c r="N96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-2000</v>
       </c>
       <c r="P96" s="3">
         <v>-2000</v>
@@ -4897,13 +5131,16 @@
         <v>-2000</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-145000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>77000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-41000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>49000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-96000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>99000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>240000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-60000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>59000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>19000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-26000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,14 +5372,14 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -5138,86 +5387,92 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>51000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-135000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>116000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>55000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>27000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-34000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-36000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1990000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1645000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1808000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1683000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1812000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1663000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1822000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1543000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1662000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1651000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1691000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1579000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1586000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1402000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1422000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1399000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1373000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1527000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1717000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1548000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1632000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1626000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1589000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1686000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1493000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1549000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1529000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1575000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1407000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1452000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1254000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1293000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1261000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1235000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E10" s="3">
         <v>118000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>91000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>135000</v>
       </c>
-      <c r="G10" s="3">
-        <v>180000</v>
-      </c>
       <c r="H10" s="3">
+        <v>186000</v>
+      </c>
+      <c r="I10" s="3">
         <v>74000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>136000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>50000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>113000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>122000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>116000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>172000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>134000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>148000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>129000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>138000</v>
       </c>
       <c r="S10" s="3">
         <v>138000</v>
       </c>
       <c r="T10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="U10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1616000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1797000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1620000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1721000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1715000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1669000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1769000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1577000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1619000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1614000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1659000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1482000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1545000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1331000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1368000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1333000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1305000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E18" s="3">
         <v>29000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>63000</v>
       </c>
-      <c r="G18" s="3">
-        <v>91000</v>
-      </c>
       <c r="H18" s="3">
+        <v>97000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>53000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-34000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>37000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>97000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>41000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>71000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>54000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>66000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>68000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E20" s="3">
         <v>52000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>111000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-232000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>86000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>28000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>105000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-171000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>35000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-35000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>76000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>62000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>37000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>49000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>57000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E21" s="3">
         <v>118000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>158000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-133000</v>
       </c>
-      <c r="G21" s="3">
-        <v>212000</v>
-      </c>
       <c r="H21" s="3">
+        <v>218000</v>
+      </c>
+      <c r="I21" s="3">
         <v>26000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>115000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>105000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-95000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>106000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>57000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>94000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>147000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>165000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>120000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>142000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>153000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="3">
         <v>6000</v>
       </c>
       <c r="F22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G22" s="3">
         <v>5000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>9000</v>
       </c>
       <c r="H22" s="3">
         <v>9000</v>
       </c>
       <c r="I22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J22" s="3">
         <v>12000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E23" s="3">
         <v>75000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>116000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-174000</v>
       </c>
-      <c r="G23" s="3">
-        <v>168000</v>
-      </c>
       <c r="H23" s="3">
+        <v>174000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>69000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>65000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-141000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>60000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>54000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>107000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>124000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>84000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>112000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>119000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-72000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>142000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-71000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-7000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-65000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>26000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-27000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>43000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>25000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E26" s="3">
         <v>147000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-103000</v>
       </c>
-      <c r="G26" s="3">
-        <v>175000</v>
-      </c>
       <c r="H26" s="3">
+        <v>179000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>58000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>57000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-76000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>28000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>134000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>81000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>59000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>84000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>104000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E27" s="3">
         <v>147000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-103000</v>
       </c>
-      <c r="G27" s="3">
-        <v>175000</v>
-      </c>
       <c r="H27" s="3">
+        <v>179000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>58000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>57000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-77000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>135000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>81000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>58000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>85000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>103000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,23 +1903,23 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-14000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>4000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-52000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-111000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>232000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-86000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-28000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-105000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>171000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-35000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>35000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-76000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-37000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-49000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-57000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E33" s="3">
         <v>147000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-103000</v>
       </c>
-      <c r="G33" s="3">
-        <v>175000</v>
-      </c>
       <c r="H33" s="3">
+        <v>179000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>58000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>57000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-91000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>81000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>58000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>85000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>103000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E35" s="3">
         <v>147000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-103000</v>
       </c>
-      <c r="G35" s="3">
-        <v>175000</v>
-      </c>
       <c r="H35" s="3">
+        <v>179000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>58000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>57000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-91000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>81000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>58000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>85000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>103000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,344 +2399,363 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E41" s="3">
         <v>92000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>79000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>101000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>125000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>121000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>110000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>59000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>194000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>78000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>79000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>116000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>61000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>70000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>77000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1465000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1245000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1177000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1125000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1434000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1418000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1440000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1488000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1336000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1590000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1266000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1265000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1576000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1358000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1391000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1286000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1277000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E43" s="3">
         <v>525000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>551000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>691000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>646000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>529000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>546000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>504000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>551000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>506000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>521000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>608000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>482000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>622000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>605000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>606000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>627000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1178000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1062000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>989000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1122000</v>
       </c>
-      <c r="G44" s="3">
-        <v>1022000</v>
-      </c>
       <c r="H44" s="3">
+        <v>1086000</v>
+      </c>
+      <c r="I44" s="3">
         <v>916000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>871000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>988000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>815000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>874000</v>
       </c>
       <c r="M44" s="3">
         <v>874000</v>
       </c>
       <c r="N44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="O44" s="3">
         <v>797000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>780000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>828000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>722000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>842000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>762000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E45" s="3">
         <v>91000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>118000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>115000</v>
       </c>
-      <c r="G45" s="3">
-        <v>123000</v>
-      </c>
       <c r="H45" s="3">
+        <v>198000</v>
+      </c>
+      <c r="I45" s="3">
         <v>112000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>107000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>143000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>131000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>124000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>126000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>133000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>174000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>120000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>119000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>109000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>105000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3354000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3015000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2914000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3154000</v>
       </c>
-      <c r="G46" s="3">
-        <v>3350000</v>
-      </c>
       <c r="H46" s="3">
+        <v>3414000</v>
+      </c>
+      <c r="I46" s="3">
         <v>3096000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3074000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3182000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3027000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3172000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2866000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2903000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3128000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2989000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2907000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2886000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2848000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2659,140 +2763,146 @@
         <v>698000</v>
       </c>
       <c r="E47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="F47" s="3">
         <v>706000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>731000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>735000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>734000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>783000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>789000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>804000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>823000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>849000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>866000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>851000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>863000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>843000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>805000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>799000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1972000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1918000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1908000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1919000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1877000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1801000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1741000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1696000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1160000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1098000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1104000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1126000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1077000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1064000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1034000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1024000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1006000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E49" s="3">
         <v>164000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>163000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>164000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>222000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>165000</v>
       </c>
       <c r="I49" s="3">
         <v>165000</v>
       </c>
       <c r="J49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K49" s="3">
         <v>166000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>236000</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -2800,11 +2910,11 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>22000</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
@@ -2812,14 +2922,17 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
         <v>22000</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E52" s="3">
         <v>181000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>182000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>187000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>101000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>150000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>138000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>143000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>80000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>342000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>357000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>360000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>83000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>77000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>78000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>93000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>80000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6399000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5976000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5873000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6155000</v>
       </c>
-      <c r="G54" s="3">
-        <v>6285000</v>
-      </c>
       <c r="H54" s="3">
+        <v>6349000</v>
+      </c>
+      <c r="I54" s="3">
         <v>5946000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5901000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5976000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5307000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5435000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5176000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5255000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5161000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4993000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4862000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4808000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4755000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E57" s="3">
         <v>210000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>189000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>336000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>368000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>235000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>262000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>297000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>238000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>227000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>238000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>221000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>272000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>190000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>188000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>163000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>216000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E58" s="3">
         <v>337000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>309000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>450000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>313000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>272000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>216000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>305000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>187000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>172000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>165000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>221000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>215000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>147000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>160000</v>
       </c>
       <c r="R58" s="3">
         <v>160000</v>
       </c>
       <c r="S58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="T58" s="3">
         <v>138000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E59" s="3">
         <v>463000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>524000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>488000</v>
       </c>
-      <c r="G59" s="3">
-        <v>508000</v>
-      </c>
       <c r="H59" s="3">
+        <v>515000</v>
+      </c>
+      <c r="I59" s="3">
         <v>452000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>427000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>434000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>359000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>370000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>339000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>345000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>331000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>438000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>393000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>431000</v>
       </c>
       <c r="S59" s="3">
         <v>431000</v>
       </c>
       <c r="T59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="U59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1076000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1010000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1022000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1274000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1189000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>959000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>905000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1036000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>784000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>769000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>742000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>787000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>818000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>775000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>741000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>754000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>785000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>785000</v>
+      </c>
+      <c r="E61" s="3">
         <v>760000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>749000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>732000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>770000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>763000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>751000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>735000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>739000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>741000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>508000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>522000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>482000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>490000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>495000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>499000</v>
       </c>
       <c r="S61" s="3">
         <v>499000</v>
       </c>
       <c r="T61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="U61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E62" s="3">
         <v>661000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>712000</v>
       </c>
       <c r="F62" s="3">
         <v>712000</v>
       </c>
       <c r="G62" s="3">
-        <v>772000</v>
+        <v>712000</v>
       </c>
       <c r="H62" s="3">
+        <v>789000</v>
+      </c>
+      <c r="I62" s="3">
         <v>814000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>826000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>835000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>455000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>499000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>508000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>513000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>453000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>332000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>308000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>298000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>296000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2582000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2441000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2493000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2728000</v>
       </c>
-      <c r="G66" s="3">
-        <v>2741000</v>
-      </c>
       <c r="H66" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="I66" s="3">
         <v>2546000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2492000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2616000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1989000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2023000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1773000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1837000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1764000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1610000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1557000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1563000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1593000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4287000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3978000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3833000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3861000</v>
       </c>
-      <c r="G72" s="3">
-        <v>3983000</v>
-      </c>
       <c r="H72" s="3">
+        <v>4030000</v>
+      </c>
+      <c r="I72" s="3">
         <v>3811000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3823000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3768000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3727000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3825000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3792000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3787000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3750000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3683000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3604000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3548000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3465000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3817000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3535000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3380000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3427000</v>
       </c>
-      <c r="G76" s="3">
-        <v>3544000</v>
-      </c>
       <c r="H76" s="3">
+        <v>3591000</v>
+      </c>
+      <c r="I76" s="3">
         <v>3400000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3409000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3360000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3318000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3412000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3403000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3418000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3397000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3383000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3305000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3245000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3162000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E81" s="3">
         <v>147000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-103000</v>
       </c>
-      <c r="G81" s="3">
-        <v>175000</v>
-      </c>
       <c r="H81" s="3">
+        <v>179000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>58000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>57000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-91000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>81000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>58000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>85000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>103000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E83" s="3">
         <v>37000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>36000</v>
       </c>
       <c r="F83" s="3">
         <v>36000</v>
       </c>
       <c r="G83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="H83" s="3">
         <v>35000</v>
       </c>
       <c r="I83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="J83" s="3">
         <v>34000</v>
       </c>
       <c r="K83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="L83" s="3">
         <v>33000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>28000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E89" s="3">
         <v>34000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>106000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-106000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>101000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>146000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-107000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>72000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>102000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>56000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>47000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>183000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>128000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-52000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-53000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-55000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-88000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-105000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-73000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-83000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-67000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-30000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-249000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>17000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-69000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-127000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>37000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-340000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-156000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-45000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-139000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,37 +5315,38 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="E96" s="3">
         <v>-2000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="G96" s="3">
         <v>-3000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="I96" s="3">
         <v>-2000</v>
       </c>
       <c r="J96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-2000</v>
       </c>
       <c r="M96" s="3">
         <v>-2000</v>
@@ -5122,10 +5355,10 @@
         <v>-2000</v>
       </c>
       <c r="O96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-2000</v>
       </c>
       <c r="Q96" s="3">
         <v>-2000</v>
@@ -5134,13 +5367,16 @@
         <v>-2000</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,82 +5549,88 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E100" s="3">
         <v>15000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-145000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>77000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-41000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>49000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-96000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>99000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>240000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-60000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>59000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>19000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-26000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5390,89 +5638,95 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>51000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-135000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>116000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>55000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>27000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-34000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-36000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2059000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1990000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1645000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1808000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1683000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1812000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1663000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1822000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1543000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1662000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1651000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1691000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1579000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1586000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1402000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1422000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1399000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1373000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1881000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1760000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1527000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1717000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1548000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1626000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1589000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1686000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1493000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1549000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1529000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1575000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1407000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1452000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1254000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1293000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1261000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1235000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E10" s="3">
         <v>230000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>118000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>91000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>135000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>186000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>74000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>136000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>50000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>113000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>122000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>116000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>172000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>134000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>148000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>129000</v>
-      </c>
-      <c r="S10" s="3">
-        <v>138000</v>
       </c>
       <c r="T10" s="3">
         <v>138000</v>
       </c>
       <c r="U10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="V10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1967000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1848000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1616000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1797000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1620000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1715000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1669000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1769000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1577000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1619000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1614000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1659000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1482000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1545000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1331000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1368000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1333000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1305000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E18" s="3">
         <v>142000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>63000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>97000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>53000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>37000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>97000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>41000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>71000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>54000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>66000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>68000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E20" s="3">
         <v>129000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>52000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>111000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-232000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>86000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>28000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>105000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-171000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>35000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>76000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>62000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>37000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>49000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>57000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E21" s="3">
         <v>334000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>118000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>158000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-133000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>218000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>115000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>105000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-95000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>106000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>57000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>94000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>147000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>165000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>120000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>142000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>153000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6000</v>
       </c>
       <c r="F22" s="3">
         <v>6000</v>
       </c>
       <c r="G22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H22" s="3">
         <v>5000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>9000</v>
       </c>
       <c r="I22" s="3">
         <v>9000</v>
       </c>
       <c r="J22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K22" s="3">
         <v>12000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E23" s="3">
         <v>269000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>75000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>116000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-174000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>174000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>69000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>65000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-141000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>60000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>54000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>107000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>124000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>84000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>112000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>119000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-72000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>142000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-71000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-65000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>26000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>43000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E26" s="3">
         <v>265000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>147000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-103000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>179000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>58000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>57000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-76000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>28000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>134000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>81000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>59000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>84000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>104000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E27" s="3">
         <v>265000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>147000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-103000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>179000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>58000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>57000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-77000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>28000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>135000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>81000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>58000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>85000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>103000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1906,23 +1967,23 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-14000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>4000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-129000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-52000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-111000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>232000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-86000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-28000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-105000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>171000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-35000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-62000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-37000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-49000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-57000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E33" s="3">
         <v>265000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>147000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-103000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>179000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>58000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-91000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>81000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>58000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>85000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>103000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E35" s="3">
         <v>265000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>147000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-103000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>179000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>58000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-91000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>81000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>58000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>85000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>103000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,512 +2486,537 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E41" s="3">
         <v>76000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>92000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>79000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>101000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>125000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>121000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>110000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>59000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>194000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>78000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>79000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>116000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>61000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>70000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>43000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>77000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1384000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1465000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1245000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1177000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1125000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1434000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1418000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1440000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1488000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1336000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1590000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1266000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1265000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1576000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1358000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1391000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1286000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1277000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>672000</v>
+      </c>
+      <c r="E43" s="3">
         <v>532000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>525000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>551000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>691000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>646000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>529000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>546000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>504000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>551000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>506000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>521000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>608000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>482000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>622000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>605000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>606000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>627000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1360000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1178000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1062000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>989000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1122000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1086000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>916000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>871000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>988000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>815000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>874000</v>
       </c>
       <c r="N44" s="3">
         <v>874000</v>
       </c>
       <c r="O44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="P44" s="3">
         <v>797000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>780000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>828000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>722000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>842000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>762000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E45" s="3">
         <v>103000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>91000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>118000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>115000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>198000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>112000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>107000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>143000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>131000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>124000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>126000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>133000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>174000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>120000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>119000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>109000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>105000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3611000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3354000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3015000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2914000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3154000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3414000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3096000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3074000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3182000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3027000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3172000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2866000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2903000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3128000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2989000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2907000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2886000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2848000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>698000</v>
+        <v>677000</v>
       </c>
       <c r="E47" s="3">
         <v>698000</v>
       </c>
       <c r="F47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="G47" s="3">
         <v>706000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>731000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>735000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>734000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>783000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>789000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>804000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>823000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>849000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>866000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>851000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>863000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>843000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>805000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>799000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2032000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1972000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1918000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1908000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1919000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1877000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1801000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1741000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1696000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1160000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1098000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1104000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1126000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1077000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1064000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1034000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1024000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1006000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E49" s="3">
         <v>221000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>164000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>163000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>164000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>222000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>165000</v>
       </c>
       <c r="J49" s="3">
         <v>165000</v>
       </c>
       <c r="K49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="L49" s="3">
         <v>166000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>236000</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -2913,11 +3024,11 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>22000</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -2925,14 +3036,17 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>22000</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E52" s="3">
         <v>154000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>181000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>182000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>187000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>101000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>150000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>138000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>143000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>80000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>342000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>357000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>360000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>83000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>77000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>78000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>93000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>80000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6693000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6399000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5976000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5873000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6155000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6349000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5946000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5901000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5976000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5307000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5435000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5176000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5255000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5161000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4993000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4862000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4808000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4755000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E57" s="3">
         <v>276000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>210000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>189000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>336000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>368000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>235000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>262000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>297000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>238000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>227000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>238000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>221000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>272000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>190000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>188000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>163000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>216000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E58" s="3">
         <v>287000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>337000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>309000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>450000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>313000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>272000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>216000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>305000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>187000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>172000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>165000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>221000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>215000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>147000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>160000</v>
       </c>
       <c r="S58" s="3">
         <v>160000</v>
       </c>
       <c r="T58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="U58" s="3">
         <v>138000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E59" s="3">
         <v>513000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>463000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>524000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>488000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>515000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>452000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>427000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>434000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>359000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>370000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>339000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>345000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>331000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>438000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>393000</v>
-      </c>
-      <c r="S59" s="3">
-        <v>431000</v>
       </c>
       <c r="T59" s="3">
         <v>431000</v>
       </c>
       <c r="U59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="V59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1183000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1076000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1010000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1022000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1274000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1189000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>959000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>905000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1036000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>784000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>769000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>742000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>787000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>818000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>775000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>741000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>754000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>785000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E61" s="3">
         <v>785000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>760000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>749000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>732000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>770000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>763000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>751000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>735000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>739000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>741000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>508000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>522000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>482000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>490000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>495000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>499000</v>
       </c>
       <c r="T61" s="3">
         <v>499000</v>
       </c>
       <c r="U61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="V61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>786000</v>
+      </c>
+      <c r="E62" s="3">
         <v>710000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>661000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>712000</v>
       </c>
       <c r="G62" s="3">
         <v>712000</v>
       </c>
       <c r="H62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="I62" s="3">
         <v>789000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>814000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>826000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>835000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>455000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>499000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>508000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>513000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>453000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>332000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>308000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>298000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>296000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2684000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2582000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2441000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2493000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2728000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2758000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2546000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2492000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2616000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1989000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2023000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1773000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1837000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1764000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1610000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1557000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1563000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1593000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4463000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4287000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3978000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3833000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3861000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4030000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3811000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3823000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3768000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3727000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3825000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3792000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3787000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3750000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3683000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3604000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3548000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3465000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4009000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3817000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3535000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3380000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3427000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3591000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3400000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3409000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3360000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3318000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3412000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3403000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3418000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3397000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3383000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3305000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3245000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3162000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E81" s="3">
         <v>265000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>147000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-103000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>179000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>58000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-91000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>81000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>58000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>85000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>103000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E83" s="3">
         <v>63000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>36000</v>
       </c>
       <c r="G83" s="3">
         <v>36000</v>
       </c>
       <c r="H83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="I83" s="3">
         <v>35000</v>
       </c>
       <c r="J83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="K83" s="3">
         <v>34000</v>
       </c>
       <c r="L83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="M83" s="3">
         <v>33000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>28000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="E89" s="3">
         <v>257000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>34000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>106000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-106000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>101000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>146000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-107000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>72000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>102000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>56000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>47000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>183000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>128000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-99000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-52000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-53000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-55000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-88000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-105000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-73000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-83000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-67000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-42000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-30000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-249000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>17000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-69000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-127000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>37000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-340000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-156000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-45000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-139000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5325,31 +5559,31 @@
         <v>-3000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="F96" s="3">
         <v>-2000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="H96" s="3">
         <v>-3000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="J96" s="3">
         <v>-2000</v>
       </c>
       <c r="K96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-2000</v>
       </c>
       <c r="N96" s="3">
         <v>-2000</v>
@@ -5358,10 +5592,10 @@
         <v>-2000</v>
       </c>
       <c r="P96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-2000</v>
       </c>
       <c r="R96" s="3">
         <v>-2000</v>
@@ -5370,13 +5604,16 @@
         <v>-2000</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,88 +5795,94 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-29000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-145000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>77000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-41000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>49000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-96000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>99000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>240000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-60000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>59000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>19000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-26000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5641,92 +5890,98 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>51000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-135000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>116000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>55000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>27000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-34000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-36000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,294 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2430000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2059000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1990000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1645000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1808000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1683000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1812000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1663000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1822000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1543000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1662000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1651000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1691000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1579000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1586000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1402000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1422000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1399000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1373000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2177000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1881000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1760000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1527000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1717000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1548000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1626000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1589000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1686000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1493000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1549000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1529000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1575000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1407000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1452000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1254000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1293000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1261000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1235000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E10" s="3">
         <v>178000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>230000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>118000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>91000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>135000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>186000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>74000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>136000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>113000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>122000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>116000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>172000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>134000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>148000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>129000</v>
-      </c>
-      <c r="T10" s="3">
-        <v>138000</v>
       </c>
       <c r="U10" s="3">
         <v>138000</v>
       </c>
       <c r="V10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="W10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1168,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2265000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1967000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1848000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1616000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1797000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1620000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1715000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1669000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1769000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1577000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1619000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1614000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1659000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1482000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1545000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1331000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1368000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1333000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1305000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E18" s="3">
         <v>92000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>142000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>29000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>63000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>97000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>37000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>97000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>41000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>71000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>54000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>66000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>68000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1412,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E20" s="3">
         <v>107000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>129000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>52000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>111000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-232000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>86000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>28000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>105000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-171000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>35000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>76000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>62000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>37000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>49000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>57000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E21" s="3">
         <v>241000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>334000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>118000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>158000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-133000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>218000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>115000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>105000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-95000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>106000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>57000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>94000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>147000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>165000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>120000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>142000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>153000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6000</v>
       </c>
       <c r="G22" s="3">
         <v>6000</v>
       </c>
       <c r="H22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I22" s="3">
         <v>5000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>9000</v>
       </c>
       <c r="J22" s="3">
         <v>9000</v>
       </c>
       <c r="K22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L22" s="3">
         <v>12000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E23" s="3">
         <v>199000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>269000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>75000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>116000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-174000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>174000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>69000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>65000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-141000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>60000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>54000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>107000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>124000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>84000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>112000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>119000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E24" s="3">
         <v>20000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-72000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>142000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-71000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-65000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>26000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>26000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-27000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>43000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>25000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E26" s="3">
         <v>179000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>265000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>147000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-103000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>179000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>58000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>57000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-76000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>134000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>81000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>59000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>84000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>104000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E27" s="3">
         <v>179000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>265000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>147000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-103000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>179000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>58000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>57000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-77000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>135000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>81000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>58000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>85000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>103000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1970,23 +2030,23 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-14000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>4000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-107000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-129000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-52000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-111000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>232000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-86000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-28000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-105000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>171000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-35000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-76000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-62000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-37000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-49000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-57000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E33" s="3">
         <v>179000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>265000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>147000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-103000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>179000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>58000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>57000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-91000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>81000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>58000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>85000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>103000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E35" s="3">
         <v>179000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>265000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>147000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-103000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>179000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>58000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>57000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-91000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>81000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>58000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>85000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>103000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,539 +2572,564 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E41" s="3">
         <v>65000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>92000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>79000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>101000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>125000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>121000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>110000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>59000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>194000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>78000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>79000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>116000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>61000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>70000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>43000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>77000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1483000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1384000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1465000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1245000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1177000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1125000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1434000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1418000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1440000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1488000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1336000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1590000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1266000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1265000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1576000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1358000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1391000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1286000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1277000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E43" s="3">
         <v>672000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>532000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>525000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>551000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>691000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>646000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>529000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>546000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>504000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>551000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>506000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>521000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>608000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>482000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>622000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>605000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>606000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>627000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1497000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1360000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1178000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1062000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>989000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1122000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1086000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>916000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>871000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>988000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>815000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>874000</v>
       </c>
       <c r="O44" s="3">
         <v>874000</v>
       </c>
       <c r="P44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="Q44" s="3">
         <v>797000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>780000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>828000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>722000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>842000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>762000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E45" s="3">
         <v>130000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>103000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>91000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>118000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>115000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>198000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>112000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>107000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>143000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>131000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>124000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>126000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>133000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>174000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>120000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>119000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>109000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>105000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3878000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3611000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3354000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3015000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2914000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3154000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3414000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3096000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3074000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3182000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3027000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3172000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2866000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2903000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3128000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2989000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2907000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2886000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2848000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E47" s="3">
         <v>677000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>698000</v>
       </c>
       <c r="F47" s="3">
         <v>698000</v>
       </c>
       <c r="G47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="H47" s="3">
         <v>706000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>731000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>735000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>734000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>783000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>789000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>804000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>823000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>849000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>866000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>851000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>863000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>843000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>805000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>799000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2160000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2032000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1972000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1918000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1908000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1919000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1877000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1801000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1741000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1696000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1160000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1098000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1104000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1126000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1077000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1064000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1034000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1024000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1006000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E49" s="3">
         <v>172000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>221000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>164000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>163000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>164000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>222000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>165000</v>
       </c>
       <c r="K49" s="3">
         <v>165000</v>
       </c>
       <c r="L49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="M49" s="3">
         <v>166000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>236000</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -3027,11 +3137,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>22000</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -3039,14 +3149,17 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>22000</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E52" s="3">
         <v>201000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>154000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>181000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>182000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>187000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>101000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>150000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>138000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>143000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>80000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>342000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>357000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>360000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>83000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>77000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>78000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>93000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>80000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7070000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6693000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6399000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5976000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5873000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6155000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6349000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5946000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5901000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5976000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5307000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5435000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5176000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5255000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5161000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4993000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4862000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4808000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4755000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3532,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E57" s="3">
         <v>338000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>276000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>210000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>189000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>336000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>368000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>235000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>262000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>297000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>238000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>227000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>238000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>221000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>272000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>190000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>188000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>163000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>216000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E58" s="3">
         <v>355000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>287000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>337000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>309000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>450000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>313000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>272000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>216000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>305000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>187000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>172000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>165000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>221000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>215000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>147000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>160000</v>
       </c>
       <c r="T58" s="3">
         <v>160000</v>
       </c>
       <c r="U58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="V58" s="3">
         <v>138000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E59" s="3">
         <v>490000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>513000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>463000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>524000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>488000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>515000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>452000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>427000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>434000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>359000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>370000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>339000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>345000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>331000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>438000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>393000</v>
-      </c>
-      <c r="T59" s="3">
-        <v>431000</v>
       </c>
       <c r="U59" s="3">
         <v>431000</v>
       </c>
       <c r="V59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="W59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1413000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1183000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1076000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1010000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1022000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1274000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1189000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>959000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>905000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1036000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>784000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>769000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>742000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>787000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>818000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>775000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>741000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>754000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>785000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>711000</v>
+      </c>
+      <c r="E61" s="3">
         <v>704000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>785000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>760000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>749000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>732000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>770000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>763000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>751000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>735000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>739000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>741000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>508000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>522000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>482000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>490000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>495000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>499000</v>
       </c>
       <c r="U61" s="3">
         <v>499000</v>
       </c>
       <c r="V61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="W61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>763000</v>
+      </c>
+      <c r="E62" s="3">
         <v>786000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>710000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>661000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>712000</v>
       </c>
       <c r="H62" s="3">
         <v>712000</v>
       </c>
       <c r="I62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="J62" s="3">
         <v>789000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>814000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>826000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>835000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>455000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>499000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>508000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>513000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>453000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>332000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>308000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>298000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>296000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2898000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2684000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2582000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2441000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2493000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2728000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2758000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2546000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2492000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2616000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1989000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2023000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1773000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1837000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1764000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1610000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1557000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1563000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1593000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4637000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4463000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4287000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3978000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3833000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3861000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4030000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3811000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3823000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3768000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3727000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3825000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3792000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3787000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3750000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3683000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3604000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3548000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3465000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4172000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4009000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3817000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3535000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3380000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3427000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3591000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3400000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3409000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3360000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3318000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3412000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3403000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3418000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3397000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3383000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3305000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3245000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3162000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E81" s="3">
         <v>179000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>265000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>147000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-103000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>179000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>58000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>57000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-91000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>81000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>58000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>85000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>103000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E83" s="3">
         <v>42000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>63000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>36000</v>
       </c>
       <c r="H83" s="3">
         <v>36000</v>
       </c>
       <c r="I83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="J83" s="3">
         <v>35000</v>
       </c>
       <c r="K83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L83" s="3">
         <v>34000</v>
       </c>
       <c r="M83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="N83" s="3">
         <v>33000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>28000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-150000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>257000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>34000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>106000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-106000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>101000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>146000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-107000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>72000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>102000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>56000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>47000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>183000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>128000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-96000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-99000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-52000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-53000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-55000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-88000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-105000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-73000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-83000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-67000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-40000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-42000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E94" s="3">
         <v>69000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-249000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>17000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-69000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-127000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>37000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-340000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-50000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-156000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-45000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-139000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,43 +5782,44 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="E96" s="3">
         <v>-3000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="G96" s="3">
         <v>-2000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="I96" s="3">
         <v>-3000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="K96" s="3">
         <v>-2000</v>
       </c>
       <c r="L96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-2000</v>
       </c>
       <c r="O96" s="3">
         <v>-2000</v>
@@ -5595,10 +5828,10 @@
         <v>-2000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-2000</v>
       </c>
       <c r="S96" s="3">
         <v>-2000</v>
@@ -5607,13 +5840,16 @@
         <v>-2000</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,94 +6040,100 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E100" s="3">
         <v>71000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-29000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-145000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>77000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-41000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>49000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-96000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>99000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>240000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-60000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>59000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>19000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-26000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -5893,95 +6141,101 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-135000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>116000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>55000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>27000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-34000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-36000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,306 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2276000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2430000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2059000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1990000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1645000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1808000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1683000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1812000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1663000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1822000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1543000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1662000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1651000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1691000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1579000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1586000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1402000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1422000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1399000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1373000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2076000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2177000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1881000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1760000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1527000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1517000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1717000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1548000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1626000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1589000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1686000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1493000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1549000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1529000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1575000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1407000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1452000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1254000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1293000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1261000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1235000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E10" s="3">
         <v>253000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>178000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>230000</v>
       </c>
-      <c r="G10" s="3">
-        <v>118000</v>
-      </c>
       <c r="H10" s="3">
+        <v>128000</v>
+      </c>
+      <c r="I10" s="3">
         <v>91000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>135000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>186000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>74000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>136000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>50000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>113000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>122000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>116000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>172000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>134000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>148000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>129000</v>
-      </c>
-      <c r="U10" s="3">
-        <v>138000</v>
       </c>
       <c r="V10" s="3">
         <v>138000</v>
       </c>
       <c r="W10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="X10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1054,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1122,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1171,8 +1190,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2164000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2265000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1967000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1848000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1616000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1797000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1620000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1715000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1669000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1769000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1577000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1619000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1614000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1659000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1482000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1545000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1331000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1368000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1333000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1305000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E18" s="3">
         <v>165000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>92000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>142000</v>
       </c>
-      <c r="G18" s="3">
-        <v>29000</v>
-      </c>
       <c r="H18" s="3">
+        <v>39000</v>
+      </c>
+      <c r="I18" s="3">
         <v>11000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>63000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>97000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>53000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>37000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>97000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>41000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>71000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>54000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>66000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>68000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,333 +1445,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>41000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>107000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>129000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>52000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>111000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-232000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>86000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>28000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>105000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-171000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>35000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-35000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>76000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>62000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>37000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>49000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>57000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E21" s="3">
         <v>251000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>241000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>334000</v>
       </c>
-      <c r="G21" s="3">
-        <v>118000</v>
-      </c>
       <c r="H21" s="3">
+        <v>128000</v>
+      </c>
+      <c r="I21" s="3">
         <v>158000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-133000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>218000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>115000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>105000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-95000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>106000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>57000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>94000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>147000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>165000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>120000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>142000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>153000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E22" s="3">
         <v>6000</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>6000</v>
       </c>
       <c r="H22" s="3">
         <v>6000</v>
       </c>
       <c r="I22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J22" s="3">
         <v>5000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>9000</v>
       </c>
       <c r="K22" s="3">
         <v>9000</v>
       </c>
       <c r="L22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M22" s="3">
         <v>12000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E23" s="3">
         <v>200000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>199000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>269000</v>
       </c>
-      <c r="G23" s="3">
-        <v>75000</v>
-      </c>
       <c r="H23" s="3">
+        <v>85000</v>
+      </c>
+      <c r="I23" s="3">
         <v>116000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-174000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>174000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>69000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>65000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-141000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>60000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>54000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>107000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>124000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>84000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>112000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>119000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>24000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-72000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="I24" s="3">
         <v>142000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-71000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-65000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-27000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>43000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>25000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E26" s="3">
         <v>176000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>179000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>265000</v>
       </c>
-      <c r="G26" s="3">
-        <v>147000</v>
-      </c>
       <c r="H26" s="3">
+        <v>154000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-26000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-103000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>179000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>58000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>57000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-76000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>134000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>81000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>59000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>84000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>104000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E27" s="3">
         <v>176000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>179000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>265000</v>
       </c>
-      <c r="G27" s="3">
-        <v>147000</v>
-      </c>
       <c r="H27" s="3">
+        <v>154000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-26000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-103000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>179000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>58000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>57000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-77000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>135000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>81000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>58000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>85000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>103000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2033,23 +2093,23 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-14000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>4000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2063,8 +2123,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,138 +2259,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-41000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-107000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-129000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-52000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-111000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>232000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-86000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-28000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-105000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>171000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-35000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>35000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-76000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-62000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-37000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-49000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-57000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E33" s="3">
         <v>176000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>179000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>265000</v>
       </c>
-      <c r="G33" s="3">
-        <v>147000</v>
-      </c>
       <c r="H33" s="3">
+        <v>154000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-26000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-103000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>179000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>58000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>57000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-91000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>81000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>58000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>85000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>103000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E35" s="3">
         <v>176000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>179000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>265000</v>
       </c>
-      <c r="G35" s="3">
-        <v>147000</v>
-      </c>
       <c r="H35" s="3">
+        <v>154000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-26000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-103000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>179000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>58000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>57000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-91000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>81000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>58000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>85000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>103000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,566 +2658,591 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E41" s="3">
         <v>92000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>92000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>79000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>101000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>125000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>121000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>110000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>59000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>194000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>78000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>79000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>116000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>61000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>70000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>43000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>77000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1516000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1483000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1384000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1465000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1245000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1177000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1125000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1434000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1418000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1440000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1488000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1336000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1590000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1266000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1265000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1576000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1358000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1391000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1286000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1277000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>657000</v>
+      </c>
+      <c r="E43" s="3">
         <v>642000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>672000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>532000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>525000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>551000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>691000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>646000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>529000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>546000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>504000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>551000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>506000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>521000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>608000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>482000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>622000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>605000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>606000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>627000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1542000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1497000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1360000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1178000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1062000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>989000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1122000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1086000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>916000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>871000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>988000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>815000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>874000</v>
       </c>
       <c r="P44" s="3">
         <v>874000</v>
       </c>
       <c r="Q44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="R44" s="3">
         <v>797000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>780000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>828000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>722000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>842000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>762000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E45" s="3">
         <v>164000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>130000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>103000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>91000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>118000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>115000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>198000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>112000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>107000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>143000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>131000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>124000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>126000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>133000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>174000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>120000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>119000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>109000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>105000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3914000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3878000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3611000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3354000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3015000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2914000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3154000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3414000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3096000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3074000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3182000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3027000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3172000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2866000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2903000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3128000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2989000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2907000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2886000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2848000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E47" s="3">
         <v>666000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>677000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>698000</v>
       </c>
       <c r="G47" s="3">
         <v>698000</v>
       </c>
       <c r="H47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="I47" s="3">
         <v>706000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>731000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>735000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>734000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>783000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>789000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>804000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>823000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>849000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>866000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>851000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>863000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>843000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>805000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>799000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2286000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2160000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2032000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1972000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1918000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1908000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1919000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1877000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1801000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1741000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1696000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1160000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1098000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1104000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1126000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1077000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1064000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1034000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1024000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1006000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E49" s="3">
         <v>164000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>172000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>221000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>164000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>163000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>164000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>222000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>165000</v>
       </c>
       <c r="L49" s="3">
         <v>165000</v>
       </c>
       <c r="M49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="N49" s="3">
         <v>166000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>236000</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -3140,11 +3250,11 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>22000</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -3152,14 +3262,17 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>22000</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3404,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E52" s="3">
         <v>202000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>201000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>154000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>181000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>182000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>187000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>101000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>150000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>138000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>143000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>80000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>342000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>357000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>360000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>83000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>77000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>78000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>93000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>80000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3540,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7257000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7070000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6693000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6399000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5976000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5873000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6155000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6349000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5946000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5901000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5976000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5307000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5435000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5176000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5255000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5161000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4993000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4862000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4808000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4755000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,398 +3662,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E57" s="3">
         <v>390000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>338000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>276000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>210000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>189000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>336000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>368000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>235000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>262000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>297000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>238000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>227000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>238000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>221000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>272000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>190000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>188000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>163000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>216000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E58" s="3">
         <v>483000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>355000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>287000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>337000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>309000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>450000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>313000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>272000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>216000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>305000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>187000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>172000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>165000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>221000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>215000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>147000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>160000</v>
       </c>
       <c r="U58" s="3">
         <v>160000</v>
       </c>
       <c r="V58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="W58" s="3">
         <v>138000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E59" s="3">
         <v>540000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>490000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>513000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>463000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>524000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>488000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>515000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>452000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>427000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>434000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>359000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>370000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>339000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>345000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>331000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>438000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>393000</v>
-      </c>
-      <c r="U59" s="3">
-        <v>431000</v>
       </c>
       <c r="V59" s="3">
         <v>431000</v>
       </c>
       <c r="W59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="X59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1438000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1413000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1183000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1076000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1010000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1022000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1274000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1189000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>959000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>905000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1036000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>784000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>769000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>742000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>787000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>818000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>775000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>741000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>754000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>785000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>709000</v>
+      </c>
+      <c r="E61" s="3">
         <v>711000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>704000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>785000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>760000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>749000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>732000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>770000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>763000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>751000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>735000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>739000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>741000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>508000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>522000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>482000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>490000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>495000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>499000</v>
       </c>
       <c r="V61" s="3">
         <v>499000</v>
       </c>
       <c r="W61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="X61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>820000</v>
+      </c>
+      <c r="E62" s="3">
         <v>763000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>786000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>710000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>661000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>712000</v>
       </c>
       <c r="I62" s="3">
         <v>712000</v>
       </c>
       <c r="J62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="K62" s="3">
         <v>789000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>814000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>826000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>835000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>455000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>499000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>508000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>513000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>453000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>332000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>308000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>298000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>296000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4272,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2984000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2898000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2684000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2582000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2441000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2493000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2728000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2758000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2546000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2492000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2616000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1989000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2023000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1773000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1837000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1764000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1610000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1557000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1563000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1593000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4638,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4729000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4637000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4463000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4287000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3978000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3833000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3861000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4030000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3811000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3823000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3768000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3727000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3825000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3792000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3787000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3750000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3683000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3604000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3548000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3465000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4910,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4273000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4172000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4009000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3817000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3535000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3380000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3427000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3591000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3400000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3409000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3360000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3318000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3412000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3403000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3418000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3397000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3383000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3305000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3245000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3162000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E81" s="3">
         <v>176000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>179000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>265000</v>
       </c>
-      <c r="G81" s="3">
-        <v>147000</v>
-      </c>
       <c r="H81" s="3">
+        <v>154000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-26000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-103000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>179000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>58000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>57000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-91000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>81000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>58000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>85000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>103000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5215,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E83" s="3">
         <v>45000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>36000</v>
       </c>
       <c r="I83" s="3">
         <v>36000</v>
       </c>
       <c r="J83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="K83" s="3">
         <v>35000</v>
       </c>
       <c r="L83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M83" s="3">
         <v>34000</v>
       </c>
       <c r="N83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="O83" s="3">
         <v>33000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>28000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E89" s="3">
         <v>82000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-150000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>257000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>34000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>106000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-106000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>101000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>146000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-107000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>72000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>102000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>56000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>47000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>21000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>183000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>128000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-127000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-96000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-99000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-52000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-53000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-55000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-88000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-105000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-73000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-83000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-67000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-55000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-40000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-42000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-36000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-174000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>69000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-249000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-36000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>17000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-58000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-69000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-127000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>37000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-340000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-50000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-156000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-45000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-139000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5792,37 +6025,37 @@
         <v>-2000</v>
       </c>
       <c r="E96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="F96" s="3">
         <v>-3000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="H96" s="3">
         <v>-2000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="J96" s="3">
         <v>-3000</v>
       </c>
       <c r="K96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="L96" s="3">
         <v>-2000</v>
       </c>
       <c r="M96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-2000</v>
       </c>
       <c r="P96" s="3">
         <v>-2000</v>
@@ -5831,10 +6064,10 @@
         <v>-2000</v>
       </c>
       <c r="R96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-2000</v>
       </c>
       <c r="T96" s="3">
         <v>-2000</v>
@@ -5843,13 +6076,16 @@
         <v>-2000</v>
       </c>
       <c r="V96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,100 +6285,106 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E100" s="3">
         <v>121000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>71000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-29000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-145000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>77000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-41000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>49000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-96000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>99000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>240000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>59000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>19000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-26000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -6144,98 +6392,104 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E102" s="3">
         <v>27000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-22000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-135000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>116000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>55000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>27000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-34000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-36000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,319 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2464000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2276000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2430000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2059000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1990000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1645000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1808000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1683000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1812000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1663000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1822000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1543000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1662000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1651000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1691000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1579000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1586000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1402000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1422000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1399000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1373000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2277000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2076000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2177000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1881000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1760000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1517000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1717000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1548000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1626000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1589000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1686000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1493000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1549000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1529000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1575000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1407000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1452000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1254000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1293000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1261000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1235000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E10" s="3">
         <v>200000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>253000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>178000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>230000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>128000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>91000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>135000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>186000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>74000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>136000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>50000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>113000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>122000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>116000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>172000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>134000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>148000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>129000</v>
-      </c>
-      <c r="V10" s="3">
-        <v>138000</v>
       </c>
       <c r="W10" s="3">
         <v>138000</v>
       </c>
       <c r="X10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="Y10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,8 +1142,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1193,8 +1213,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1261,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2375000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2164000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2265000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1967000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1848000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1606000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1797000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1620000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1715000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1669000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1769000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1577000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1619000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1614000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1659000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1482000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1545000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1331000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1368000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1333000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1305000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E18" s="3">
         <v>112000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>165000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>92000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>142000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>39000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>63000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>97000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>53000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>43000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>37000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>32000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>97000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>41000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>71000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>54000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>66000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>68000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,348 +1479,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>41000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>107000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>129000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>52000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>111000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-232000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>86000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>28000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>105000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-171000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>35000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-10000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-35000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>76000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>62000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>37000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>49000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>57000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E21" s="3">
         <v>159000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>251000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>241000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>334000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>128000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>158000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-133000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>218000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>115000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>105000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-95000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>106000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>57000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>94000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>147000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>165000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>120000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>142000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>153000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="3">
         <v>11000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6000</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6000</v>
       </c>
       <c r="I22" s="3">
         <v>6000</v>
       </c>
       <c r="J22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K22" s="3">
         <v>5000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>9000</v>
       </c>
       <c r="L22" s="3">
         <v>9000</v>
       </c>
       <c r="M22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="N22" s="3">
         <v>12000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E23" s="3">
         <v>104000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>199000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>269000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>85000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>116000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-174000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>174000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>69000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>65000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-141000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>60000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>54000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>107000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>124000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>84000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>112000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>119000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-69000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>142000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-71000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-65000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>26000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>26000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-27000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>43000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>25000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>28000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E26" s="3">
         <v>94000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>176000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>179000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>265000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>154000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-103000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>179000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>58000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>57000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-76000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>134000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>81000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>59000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>84000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>104000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E27" s="3">
         <v>94000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>176000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>179000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>265000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>154000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-103000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>179000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>58000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>57000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-77000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>28000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>135000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>81000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>58000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>85000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>103000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2096,23 +2157,23 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-14000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>4000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2126,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-41000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-107000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-129000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-52000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-111000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>232000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-86000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-28000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-105000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>171000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>10000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>35000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-76000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-62000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-37000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-49000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-57000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E33" s="3">
         <v>94000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>176000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>179000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>265000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>154000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-103000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>179000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>58000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>57000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-91000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>81000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>58000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>85000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>103000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E35" s="3">
         <v>94000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>176000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>179000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>265000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>154000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-103000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>179000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>58000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>57000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-91000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>81000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>58000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>85000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>103000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,593 +2745,618 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E41" s="3">
         <v>62000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>92000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>76000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>79000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>101000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>125000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>121000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>110000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>59000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>194000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>78000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>79000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>116000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>61000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>70000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>43000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>77000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1416000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1516000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1483000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1384000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1465000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1245000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1177000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1125000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1434000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1418000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1440000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1488000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1336000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1590000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1266000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1265000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1576000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1358000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1391000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1286000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1277000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>762000</v>
+      </c>
+      <c r="E43" s="3">
         <v>657000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>642000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>672000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>532000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>525000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>551000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>691000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>646000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>529000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>546000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>504000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>551000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>506000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>521000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>608000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>482000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>622000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>605000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>606000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>627000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1663000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1542000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1497000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1360000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1178000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1062000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>989000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1122000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1086000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>916000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>871000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>988000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>815000</v>
-      </c>
-      <c r="P44" s="3">
-        <v>874000</v>
       </c>
       <c r="Q44" s="3">
         <v>874000</v>
       </c>
       <c r="R44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="S44" s="3">
         <v>797000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>780000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>828000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>722000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>842000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>762000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E45" s="3">
         <v>137000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>164000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>130000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>103000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>91000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>118000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>115000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>198000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>112000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>107000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>143000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>131000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>124000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>126000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>133000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>174000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>120000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>119000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>109000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>105000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4047000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3914000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3878000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3611000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3354000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3015000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2914000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3154000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3414000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3096000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3074000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3182000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3027000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3172000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2866000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2903000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3128000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2989000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2907000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2886000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2848000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>651000</v>
+      </c>
+      <c r="E47" s="3">
         <v>656000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>666000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>677000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>698000</v>
       </c>
       <c r="H47" s="3">
         <v>698000</v>
       </c>
       <c r="I47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="J47" s="3">
         <v>706000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>731000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>735000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>734000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>783000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>789000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>804000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>823000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>849000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>866000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>851000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>863000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>843000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>805000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>799000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2388000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2286000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2160000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2032000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1972000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1918000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1908000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1919000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1877000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1801000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1741000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1696000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1160000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1098000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1104000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1126000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1077000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1064000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1034000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1024000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1006000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E49" s="3">
         <v>165000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>164000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>172000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>221000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>164000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>163000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>164000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>222000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>165000</v>
       </c>
       <c r="M49" s="3">
         <v>165000</v>
       </c>
       <c r="N49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="O49" s="3">
         <v>166000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>236000</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
@@ -3253,11 +3364,11 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
         <v>22000</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
@@ -3265,14 +3376,17 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3">
         <v>22000</v>
       </c>
-      <c r="X49" s="3" t="s">
+      <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E52" s="3">
         <v>236000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>202000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>201000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>154000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>181000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>182000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>187000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>101000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>150000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>138000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>143000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>80000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>342000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>357000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>360000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>83000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>77000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>78000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>93000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>80000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7503000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7257000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7070000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6693000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6399000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5976000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5873000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6155000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6349000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5946000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5901000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5976000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5307000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5435000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5176000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5255000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5161000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4993000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4862000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4808000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4755000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,416 +3793,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E57" s="3">
         <v>398000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>390000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>338000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>276000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>210000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>189000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>336000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>368000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>235000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>262000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>297000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>238000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>227000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>238000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>221000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>272000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>190000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>188000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>163000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>216000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E58" s="3">
         <v>475000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>483000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>355000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>287000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>337000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>309000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>450000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>313000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>272000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>216000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>305000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>187000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>172000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>165000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>221000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>215000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>147000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>160000</v>
       </c>
       <c r="V58" s="3">
         <v>160000</v>
       </c>
       <c r="W58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="X58" s="3">
         <v>138000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E59" s="3">
         <v>565000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>540000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>490000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>513000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>463000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>524000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>488000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>515000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>452000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>427000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>434000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>359000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>370000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>339000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>345000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>331000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>438000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>393000</v>
-      </c>
-      <c r="V59" s="3">
-        <v>431000</v>
       </c>
       <c r="W59" s="3">
         <v>431000</v>
       </c>
       <c r="X59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="Y59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1552000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1438000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1413000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1183000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1076000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1010000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1022000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1274000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1189000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>959000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>905000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1036000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>784000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>769000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>742000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>787000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>818000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>775000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>741000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>754000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>785000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>812000</v>
+      </c>
+      <c r="E61" s="3">
         <v>709000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>711000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>704000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>785000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>760000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>749000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>732000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>770000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>763000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>751000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>735000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>739000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>741000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>508000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>522000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>482000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>490000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>495000</v>
-      </c>
-      <c r="V61" s="3">
-        <v>499000</v>
       </c>
       <c r="W61" s="3">
         <v>499000</v>
       </c>
       <c r="X61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="Y61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E62" s="3">
         <v>820000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>763000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>786000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>710000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>661000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>712000</v>
       </c>
       <c r="J62" s="3">
         <v>712000</v>
       </c>
       <c r="K62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="L62" s="3">
         <v>789000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>814000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>826000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>835000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>455000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>499000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>508000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>513000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>453000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>332000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>308000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>298000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>296000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3087000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2984000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2898000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2684000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2582000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2441000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2493000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2728000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2758000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2546000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2492000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2616000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1989000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2023000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1773000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1837000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1764000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1610000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1557000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1563000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1593000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4847000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4729000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4637000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4463000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4287000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3978000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3833000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3861000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4030000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3811000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3823000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3768000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3727000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3825000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3792000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3787000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3750000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3683000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3604000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3548000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3465000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4416000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4273000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4172000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4009000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3817000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3535000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3380000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3427000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3591000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3400000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3409000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3360000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3318000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3412000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3403000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3418000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3397000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3383000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3305000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3245000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3162000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E81" s="3">
         <v>94000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>176000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>179000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>265000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>154000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-103000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>179000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>58000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>57000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-91000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>81000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>58000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>85000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>103000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E83" s="3">
         <v>44000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>45000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>63000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>36000</v>
       </c>
       <c r="J83" s="3">
         <v>36000</v>
       </c>
       <c r="K83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L83" s="3">
         <v>35000</v>
       </c>
       <c r="M83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="N83" s="3">
         <v>34000</v>
       </c>
       <c r="O83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="P83" s="3">
         <v>33000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>28000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E89" s="3">
         <v>164000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>82000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-150000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>257000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>34000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>106000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-106000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>101000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>146000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-107000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>72000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>102000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>56000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>47000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>21000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>183000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>128000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-101000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-127000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-96000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-99000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-52000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-53000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-88000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-105000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-73000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-83000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-67000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-40000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-42000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-36000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-30000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-176000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-174000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>69000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-249000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-36000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>17000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-58000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-69000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-127000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>37000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-340000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-50000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-156000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-45000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-139000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,49 +6249,50 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="E96" s="3">
         <v>-2000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="G96" s="3">
         <v>-3000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="I96" s="3">
         <v>-2000</v>
       </c>
       <c r="J96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="K96" s="3">
         <v>-3000</v>
       </c>
       <c r="L96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="M96" s="3">
         <v>-2000</v>
       </c>
       <c r="N96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-3000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-2000</v>
       </c>
       <c r="Q96" s="3">
         <v>-2000</v>
@@ -6067,10 +6301,10 @@
         <v>-2000</v>
       </c>
       <c r="S96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-2000</v>
       </c>
       <c r="U96" s="3">
         <v>-2000</v>
@@ -6079,13 +6313,16 @@
         <v>-2000</v>
       </c>
       <c r="W96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,106 +6531,112 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>121000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>71000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-29000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-145000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>77000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-41000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>49000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-96000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>99000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>240000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-60000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>59000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>19000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-26000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -6395,101 +6644,107 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-30000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-22000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>51000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-135000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>116000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-21000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>55000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>27000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-34000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-36000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,332 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2709000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2464000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2276000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2430000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2059000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1990000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1645000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1808000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1683000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1812000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1663000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1822000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1543000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1662000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1651000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1691000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1579000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1586000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1402000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1422000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1399000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1373000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2473000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2277000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2076000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2177000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1881000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1760000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1517000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1717000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1548000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1626000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1589000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1686000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1493000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1549000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1529000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1575000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1407000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1452000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1254000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1293000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1261000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1235000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E10" s="3">
         <v>187000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>253000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>178000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>230000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>128000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>91000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>135000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>186000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>74000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>136000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>113000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>122000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>116000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>172000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>134000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>148000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>129000</v>
-      </c>
-      <c r="W10" s="3">
-        <v>138000</v>
       </c>
       <c r="X10" s="3">
         <v>138000</v>
       </c>
       <c r="Y10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="Z10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1016,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1162,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1216,8 +1236,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2563000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2375000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2164000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2265000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1967000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1848000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1606000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1797000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1620000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1715000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1669000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1769000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1577000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1619000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1614000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1659000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1482000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1545000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1331000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1368000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1333000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1305000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E18" s="3">
         <v>89000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>112000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>165000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>92000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>142000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>63000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>97000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>53000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-34000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>37000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>32000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>97000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>41000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>71000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>54000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>66000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>68000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,363 +1513,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E20" s="3">
         <v>50000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>41000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>107000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>129000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>52000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>111000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-232000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>86000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>28000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>105000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-171000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>35000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-10000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-35000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>76000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>62000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>37000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>49000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>57000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E21" s="3">
         <v>186000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>159000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>251000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>241000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>334000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>128000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>158000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-133000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>218000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>115000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>105000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-95000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>106000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>57000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>94000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>147000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>165000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>120000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>142000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>153000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>6000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6000</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>6000</v>
       </c>
       <c r="J22" s="3">
         <v>6000</v>
       </c>
       <c r="K22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L22" s="3">
         <v>5000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>9000</v>
       </c>
       <c r="M22" s="3">
         <v>9000</v>
       </c>
       <c r="N22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="O22" s="3">
         <v>12000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E23" s="3">
         <v>133000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>104000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>199000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>269000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>85000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>116000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-174000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>174000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>69000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>65000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-141000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>60000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>54000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>107000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>124000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>84000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>112000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>119000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E24" s="3">
         <v>11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-69000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>142000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-71000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-65000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>26000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-27000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>43000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>25000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>28000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>15000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E26" s="3">
         <v>122000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>94000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>176000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>179000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>265000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>154000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-103000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>179000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>58000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>57000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>34000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>28000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>134000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>81000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>59000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>84000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>104000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E27" s="3">
         <v>121000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>94000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>176000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>179000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>265000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>154000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-103000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>179000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>58000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>57000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>28000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>135000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>81000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>58000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>85000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>103000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,31 +2177,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2160,23 +2221,23 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>4000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2399,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-50000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-41000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-107000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-129000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-52000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-111000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>232000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-86000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-28000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-105000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>171000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-35000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>10000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>35000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-76000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-62000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-37000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-49000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-57000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E33" s="3">
         <v>121000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>94000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>176000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>179000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>265000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>154000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-103000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>179000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>58000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>57000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>81000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>58000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>85000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>103000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E35" s="3">
         <v>121000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>94000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>176000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>179000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>265000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>154000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-103000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>179000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>58000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>57000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>81000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>58000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>85000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>103000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,620 +2832,645 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E41" s="3">
         <v>75000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>62000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>92000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>65000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>76000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>92000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>79000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>101000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>125000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>121000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>110000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>59000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>194000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>78000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>79000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>116000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>61000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>70000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>43000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>77000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1295000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1416000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1516000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1483000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1384000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1465000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1245000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1177000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1125000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1434000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1418000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1440000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1488000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1336000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1590000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1266000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1265000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1576000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1358000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1391000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1286000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1277000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>843000</v>
+      </c>
+      <c r="E43" s="3">
         <v>762000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>657000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>642000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>672000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>532000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>525000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>551000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>691000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>646000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>529000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>546000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>504000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>551000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>506000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>521000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>608000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>482000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>622000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>605000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>606000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>627000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1698000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1663000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1542000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1497000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1360000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1178000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1062000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>989000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1122000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1086000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>916000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>871000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>988000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>815000</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>874000</v>
       </c>
       <c r="R44" s="3">
         <v>874000</v>
       </c>
       <c r="S44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="T44" s="3">
         <v>797000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>780000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>828000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>722000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>842000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>762000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E45" s="3">
         <v>131000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>137000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>164000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>130000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>103000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>91000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>118000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>115000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>198000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>112000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>107000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>143000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>131000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>124000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>126000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>133000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>174000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>120000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>119000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>109000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>105000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4069000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4047000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3914000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3878000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3611000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3354000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3015000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2914000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3154000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3414000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3096000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3074000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3182000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3027000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3172000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2866000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2903000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3128000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2989000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2907000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2886000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2848000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>679000</v>
+      </c>
+      <c r="E47" s="3">
         <v>651000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>656000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>666000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>677000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>698000</v>
       </c>
       <c r="I47" s="3">
         <v>698000</v>
       </c>
       <c r="J47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="K47" s="3">
         <v>706000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>731000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>735000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>734000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>783000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>789000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>804000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>823000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>849000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>866000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>851000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>863000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>843000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>805000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>799000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2514000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2388000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2286000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2160000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2032000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1972000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1918000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1908000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1919000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1877000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1801000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1741000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1696000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1160000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1098000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1104000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1126000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1077000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1064000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1034000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1024000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1006000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E49" s="3">
         <v>208000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>165000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>164000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>172000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>221000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>164000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>163000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>164000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>222000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>165000</v>
       </c>
       <c r="N49" s="3">
         <v>165000</v>
       </c>
       <c r="O49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="P49" s="3">
         <v>166000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>236000</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -3367,11 +3478,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>22000</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
@@ -3379,14 +3490,17 @@
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>22000</v>
       </c>
-      <c r="Y49" s="3" t="s">
+      <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3644,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E52" s="3">
         <v>209000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>236000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>202000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>201000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>154000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>181000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>182000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>187000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>101000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>150000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>138000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>143000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>80000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>342000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>357000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>360000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>83000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>77000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>78000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>93000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>80000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7669000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7503000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7257000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7070000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6693000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6399000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5976000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5873000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6155000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6349000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5946000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5901000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5976000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5307000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5435000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5176000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5255000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5161000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4993000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4862000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4808000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4755000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,434 +3924,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E57" s="3">
         <v>404000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>398000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>390000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>338000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>276000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>210000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>189000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>336000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>368000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>235000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>262000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>297000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>238000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>227000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>238000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>221000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>272000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>190000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>188000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>163000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>216000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>531000</v>
+      </c>
+      <c r="E58" s="3">
         <v>547000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>475000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>483000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>355000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>287000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>337000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>309000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>450000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>313000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>272000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>216000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>305000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>187000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>172000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>165000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>221000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>215000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>147000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>160000</v>
       </c>
       <c r="W58" s="3">
         <v>160000</v>
       </c>
       <c r="X58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>138000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>635000</v>
+      </c>
+      <c r="E59" s="3">
         <v>601000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>565000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>540000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>490000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>513000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>463000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>524000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>488000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>515000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>452000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>427000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>434000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>359000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>370000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>339000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>345000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>331000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>438000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>393000</v>
-      </c>
-      <c r="W59" s="3">
-        <v>431000</v>
       </c>
       <c r="X59" s="3">
         <v>431000</v>
       </c>
       <c r="Y59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="Z59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1632000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1552000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1438000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1413000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1183000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1076000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1010000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1022000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1274000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1189000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>959000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>905000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1036000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>784000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>769000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>742000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>787000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>818000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>775000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>741000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>754000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>785000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E61" s="3">
         <v>812000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>709000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>711000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>704000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>785000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>760000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>749000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>732000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>770000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>763000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>751000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>735000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>739000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>741000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>508000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>522000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>482000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>490000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>495000</v>
-      </c>
-      <c r="W61" s="3">
-        <v>499000</v>
       </c>
       <c r="X61" s="3">
         <v>499000</v>
       </c>
       <c r="Y61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="Z61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>798000</v>
+      </c>
+      <c r="E62" s="3">
         <v>705000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>820000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>763000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>786000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>710000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>661000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>712000</v>
       </c>
       <c r="K62" s="3">
         <v>712000</v>
       </c>
       <c r="L62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="M62" s="3">
         <v>789000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>814000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>826000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>835000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>455000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>499000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>508000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>513000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>453000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>332000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>308000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>298000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>296000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3154000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3087000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2984000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2898000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2684000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2582000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2441000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2493000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2728000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2758000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2546000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2492000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2616000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1989000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2023000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1773000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1837000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1764000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1610000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1557000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1563000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1593000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4947000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4847000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4729000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4637000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4463000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4287000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3978000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3833000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3861000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4030000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3811000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3823000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3768000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3727000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3825000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3792000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3787000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3750000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3683000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3604000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3548000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3465000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4515000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4416000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4273000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4172000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4009000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3817000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3535000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3380000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3427000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3591000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3400000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3409000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3360000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3318000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3412000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3403000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3418000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3397000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3383000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3305000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3245000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3162000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E81" s="3">
         <v>121000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>94000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>176000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>179000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>265000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>154000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-103000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>179000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>58000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>57000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>81000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>58000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>85000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>103000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5613,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E83" s="3">
         <v>47000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>44000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>45000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>63000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>36000</v>
       </c>
       <c r="K83" s="3">
         <v>36000</v>
       </c>
       <c r="L83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M83" s="3">
         <v>35000</v>
       </c>
       <c r="N83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="O83" s="3">
         <v>34000</v>
       </c>
       <c r="P83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>33000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>35000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>32000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>27000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>28000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>164000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>82000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-150000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>257000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>34000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>106000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-106000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>101000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>31000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>146000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-107000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>72000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>102000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>56000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>47000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>21000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>183000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>128000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-136000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-101000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-127000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-96000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-99000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-52000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-53000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-88000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-105000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-73000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-83000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-55000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-40000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-42000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-36000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-30000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-176000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-174000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>69000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-249000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-36000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>17000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-58000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-69000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-127000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>37000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-340000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-50000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-156000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-45000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-139000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6259,43 +6493,43 @@
         <v>-3000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="F96" s="3">
         <v>-2000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="H96" s="3">
         <v>-3000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="J96" s="3">
         <v>-2000</v>
       </c>
       <c r="K96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="L96" s="3">
         <v>-3000</v>
       </c>
       <c r="M96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="N96" s="3">
         <v>-2000</v>
       </c>
       <c r="O96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-2000</v>
       </c>
       <c r="R96" s="3">
         <v>-2000</v>
@@ -6304,10 +6538,10 @@
         <v>-2000</v>
       </c>
       <c r="T96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-2000</v>
       </c>
       <c r="V96" s="3">
         <v>-2000</v>
@@ -6316,13 +6550,16 @@
         <v>-2000</v>
       </c>
       <c r="X96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,112 +6777,118 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E100" s="3">
         <v>40000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>121000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>71000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-29000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>15000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-145000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>77000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-41000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>49000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-96000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>99000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>240000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-60000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>59000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>19000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-26000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -6647,104 +6896,110 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-30000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-22000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>51000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-135000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>116000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-21000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-16000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>55000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>27000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-34000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,344 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2973000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2709000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2464000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2276000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2430000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2059000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1990000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1645000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1808000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1683000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1812000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1663000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1822000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1543000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1662000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1651000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1691000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1579000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1586000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1402000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1422000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1399000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1373000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2692000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2473000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2277000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2076000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2177000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1881000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1760000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1517000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1717000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1548000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1626000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1589000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1686000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1493000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1549000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1529000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1575000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1407000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1452000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1254000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1293000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1261000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1235000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E10" s="3">
         <v>236000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>187000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>253000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>178000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>230000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>128000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>91000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>135000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>186000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>74000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>136000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>113000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>122000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>116000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>172000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>134000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>148000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>129000</v>
-      </c>
-      <c r="X10" s="3">
-        <v>138000</v>
       </c>
       <c r="Y10" s="3">
         <v>138000</v>
       </c>
       <c r="Z10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="AA10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1029,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1181,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,8 +1258,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2781000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2563000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2375000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2164000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2265000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1967000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1848000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1606000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1797000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1620000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1715000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1669000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1769000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1577000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1619000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1614000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1659000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1482000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1545000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1331000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1368000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1333000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1305000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E18" s="3">
         <v>146000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>89000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>112000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>165000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>92000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>142000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>63000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>97000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>53000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>37000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>32000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>97000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>41000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>71000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>54000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>66000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>68000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,378 +1546,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>50000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>41000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>107000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>129000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>52000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>111000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-232000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>86000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>28000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>105000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-171000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>35000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-10000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-35000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>76000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>62000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>37000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>49000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>57000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E21" s="3">
         <v>169000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>186000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>159000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>251000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>241000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>334000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>128000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>158000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-133000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>218000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>115000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>105000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-95000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>106000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>57000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>94000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>147000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>165000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>120000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>142000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>153000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>6000</v>
       </c>
       <c r="K22" s="3">
         <v>6000</v>
       </c>
       <c r="L22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M22" s="3">
         <v>5000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>9000</v>
       </c>
       <c r="N22" s="3">
         <v>9000</v>
       </c>
       <c r="O22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P22" s="3">
         <v>12000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>6000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E23" s="3">
         <v>119000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>133000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>104000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>199000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>269000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>85000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>116000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-174000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>174000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>69000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>65000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-141000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>60000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>54000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>107000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>124000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>84000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>112000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>119000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E24" s="3">
         <v>15000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-69000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>142000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-71000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-65000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>26000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>26000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-27000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>43000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>25000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>28000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>15000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E26" s="3">
         <v>104000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>122000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>94000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>176000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>179000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>265000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>154000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-103000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>179000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>58000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>57000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-76000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>28000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>134000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>81000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>59000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>84000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>104000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E27" s="3">
         <v>103000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>121000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>94000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>176000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>179000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>265000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>154000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-103000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>179000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>58000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>57000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-77000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>28000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>135000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>81000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>58000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>85000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>103000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2206,8 +2266,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2224,23 +2284,23 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-14000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>4000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2254,8 +2314,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,156 +2468,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E32" s="3">
         <v>27000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-50000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-41000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-107000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-129000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-52000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-111000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>232000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-86000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-28000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-105000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>171000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-35000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>10000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>35000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-76000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-62000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-37000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-49000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-57000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E33" s="3">
         <v>103000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>121000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>94000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>176000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>179000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>265000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>154000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-103000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>179000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>58000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>57000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-91000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>81000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>58000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>85000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>103000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E35" s="3">
         <v>103000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>121000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>94000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>176000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>179000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>265000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>154000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-103000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>179000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>58000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>57000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-91000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>81000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>58000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>85000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>103000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,647 +2918,672 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E41" s="3">
         <v>94000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>75000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>62000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>92000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>65000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>76000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>92000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>79000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>101000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>125000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>121000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>110000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>59000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>194000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>78000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>79000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>116000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>61000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>70000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>43000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>77000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1101000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1295000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1416000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1516000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1483000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1384000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1465000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1245000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1177000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1125000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1434000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1418000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1440000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1488000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1336000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1590000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1266000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1265000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1576000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1358000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1391000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1286000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1277000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>944000</v>
+      </c>
+      <c r="E43" s="3">
         <v>843000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>762000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>657000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>642000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>672000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>532000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>525000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>551000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>691000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>646000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>529000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>546000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>504000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>551000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>506000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>521000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>608000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>482000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>622000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>605000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>606000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>627000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1844000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1698000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1663000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1542000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1497000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1360000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1178000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1062000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>989000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1122000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1086000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>916000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>871000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>988000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>815000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>874000</v>
       </c>
       <c r="S44" s="3">
         <v>874000</v>
       </c>
       <c r="T44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="U44" s="3">
         <v>797000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>780000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>828000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>722000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>842000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>762000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E45" s="3">
         <v>139000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>131000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>137000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>164000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>130000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>103000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>91000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>115000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>198000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>112000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>107000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>143000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>131000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>124000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>126000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>133000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>174000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>120000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>119000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>109000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>105000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4141000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4069000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4047000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3914000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3878000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3611000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3354000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3015000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2914000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3154000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3414000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3096000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3074000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3182000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3027000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3172000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2866000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2903000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3128000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2989000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2907000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2886000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2848000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>833000</v>
+      </c>
+      <c r="E47" s="3">
         <v>679000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>651000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>656000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>666000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>677000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>698000</v>
       </c>
       <c r="J47" s="3">
         <v>698000</v>
       </c>
       <c r="K47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="L47" s="3">
         <v>706000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>731000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>735000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>734000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>783000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>789000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>804000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>823000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>849000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>866000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>851000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>863000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>843000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>805000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>799000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2587000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2514000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2388000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2286000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2160000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2032000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1972000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1918000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1908000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1919000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1877000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1801000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1741000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1696000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1160000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1098000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1104000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1126000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1077000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1064000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1034000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1024000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1006000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E49" s="3">
         <v>161000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>208000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>165000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>164000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>172000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>221000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>164000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>163000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>164000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>222000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>165000</v>
       </c>
       <c r="O49" s="3">
         <v>165000</v>
       </c>
       <c r="P49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>166000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>236000</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -3481,11 +3591,11 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>22000</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
@@ -3493,14 +3603,17 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3">
         <v>22000</v>
       </c>
-      <c r="Z49" s="3" t="s">
+      <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,82 +3763,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E52" s="3">
         <v>246000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>209000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>236000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>202000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>201000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>154000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>181000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>182000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>187000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>101000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>150000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>138000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>143000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>80000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>342000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>357000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>360000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>83000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>77000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>78000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>93000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>80000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3917,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7810000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7669000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7503000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7257000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7070000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6693000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6399000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5976000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5873000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6155000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6349000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5946000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5901000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5976000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5307000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5435000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5176000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5255000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5161000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4993000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4862000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4808000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4755000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,452 +4054,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E57" s="3">
         <v>466000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>404000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>398000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>390000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>338000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>276000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>210000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>189000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>336000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>368000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>235000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>262000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>297000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>238000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>227000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>238000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>221000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>272000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>190000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>188000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>163000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>216000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E58" s="3">
         <v>531000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>547000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>475000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>483000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>355000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>287000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>337000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>309000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>450000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>313000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>272000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>216000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>305000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>187000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>172000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>165000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>221000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>215000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>147000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>160000</v>
       </c>
       <c r="X58" s="3">
         <v>160000</v>
       </c>
       <c r="Y58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>138000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>664000</v>
+      </c>
+      <c r="E59" s="3">
         <v>635000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>601000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>565000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>540000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>490000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>513000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>463000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>524000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>488000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>515000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>452000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>427000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>434000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>359000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>370000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>339000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>345000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>331000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>438000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>393000</v>
-      </c>
-      <c r="X59" s="3">
-        <v>431000</v>
       </c>
       <c r="Y59" s="3">
         <v>431000</v>
       </c>
       <c r="Z59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="AA59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1632000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1552000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1438000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1413000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1183000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1076000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1010000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1022000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1274000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1189000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>959000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>905000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1036000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>784000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>769000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>742000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>787000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>818000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>775000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>741000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>754000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>785000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E61" s="3">
         <v>705000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>812000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>709000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>711000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>704000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>785000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>760000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>749000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>732000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>770000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>763000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>751000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>735000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>739000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>741000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>508000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>522000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>482000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>490000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>495000</v>
-      </c>
-      <c r="X61" s="3">
-        <v>499000</v>
       </c>
       <c r="Y61" s="3">
         <v>499000</v>
       </c>
       <c r="Z61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="AA61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E62" s="3">
         <v>798000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>705000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>820000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>763000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>786000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>710000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>661000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>712000</v>
       </c>
       <c r="L62" s="3">
         <v>712000</v>
       </c>
       <c r="M62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="N62" s="3">
         <v>789000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>814000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>826000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>835000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>455000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>499000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>508000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>513000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>453000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>332000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>308000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>298000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>296000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4745,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3190000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3154000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3087000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2984000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2898000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2684000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2582000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2441000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2493000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2728000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2758000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2546000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2492000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2616000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1989000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2023000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1773000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1837000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1764000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1610000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1557000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1563000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1593000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5159,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5053000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4947000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4847000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4729000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4637000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4463000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4287000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3978000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3833000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3861000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4030000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3811000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3823000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3768000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3727000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3825000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3792000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3787000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3750000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3683000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3604000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3548000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3465000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5467,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4620000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4515000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4416000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4273000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4172000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4009000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3817000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3535000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3380000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3427000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3591000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3400000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3409000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3360000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3318000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3412000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3403000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3418000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3397000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3383000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3305000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3245000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3162000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E81" s="3">
         <v>103000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>121000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>94000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>176000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>179000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>265000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>154000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-103000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>179000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>58000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>57000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-91000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>81000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>58000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>85000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>103000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5811,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E83" s="3">
         <v>50000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>47000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>44000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>45000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>36000</v>
       </c>
       <c r="L83" s="3">
         <v>36000</v>
       </c>
       <c r="M83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="N83" s="3">
         <v>35000</v>
       </c>
       <c r="O83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="P83" s="3">
         <v>34000</v>
       </c>
       <c r="Q83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="R83" s="3">
         <v>33000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>35000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>30000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>32000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>29000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>27000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>28000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E89" s="3">
         <v>106000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>164000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>82000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-150000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>257000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>34000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>106000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-106000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>101000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>31000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>146000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-107000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>72000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>102000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>56000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>47000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>21000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>183000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>128000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-161000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-136000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-101000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-127000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-96000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-99000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-52000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-53000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-88000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-105000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-73000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-83000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-67000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-55000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-40000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-42000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-30000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-97000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-176000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-174000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>69000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-249000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-36000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>17000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-69000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-127000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>37000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-340000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-50000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-15000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-156000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-45000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-139000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,55 +6716,56 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="E96" s="3">
         <v>-3000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="G96" s="3">
         <v>-2000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="I96" s="3">
         <v>-3000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="K96" s="3">
         <v>-2000</v>
       </c>
       <c r="L96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="M96" s="3">
         <v>-3000</v>
       </c>
       <c r="N96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="O96" s="3">
         <v>-2000</v>
       </c>
       <c r="P96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-2000</v>
       </c>
       <c r="S96" s="3">
         <v>-2000</v>
@@ -6541,10 +6774,10 @@
         <v>-2000</v>
       </c>
       <c r="U96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-2000</v>
       </c>
       <c r="W96" s="3">
         <v>-2000</v>
@@ -6553,13 +6786,16 @@
         <v>-2000</v>
       </c>
       <c r="Y96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,82 +7022,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E100" s="3">
         <v>9000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>40000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>121000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>71000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-29000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-145000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>77000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-41000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>49000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-96000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>99000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>240000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-60000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>59000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-16000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>19000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-26000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6863,35 +7111,35 @@
         <v>1000</v>
       </c>
       <c r="E101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -6899,107 +7147,113 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Y101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>19000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-30000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-22000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>51000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-135000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>116000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-21000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-16000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>55000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>27000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,356 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2895000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2973000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2709000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2464000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2276000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2430000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2059000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1990000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1645000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1808000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1683000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1812000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1663000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1822000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1543000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1662000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1651000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1691000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1579000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1586000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1402000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1422000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1399000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1373000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2648000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2692000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2473000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2277000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2076000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2177000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1881000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1760000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1517000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1717000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1548000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1626000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1589000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1686000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1493000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1549000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1529000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1575000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1407000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1452000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1254000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1293000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1261000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1235000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E10" s="3">
         <v>281000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>236000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>187000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>253000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>178000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>230000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>128000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>91000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>135000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>186000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>74000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>136000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>50000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>113000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>122000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>116000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>172000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>134000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>148000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>129000</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>138000</v>
       </c>
       <c r="Z10" s="3">
         <v>138000</v>
       </c>
       <c r="AA10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="AB10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1042,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1107,8 +1120,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,8 +1200,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1261,8 +1280,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1338,8 +1360,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1389,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2740000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2781000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2563000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2375000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2164000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2265000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1967000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1848000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1606000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1797000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1620000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1715000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1669000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1769000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1577000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1619000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1614000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1659000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1482000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1545000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1331000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1368000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1333000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1305000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E18" s="3">
         <v>192000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>146000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>89000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>112000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>165000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>92000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>142000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>63000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>97000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-34000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>37000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>32000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>97000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>41000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>71000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>54000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>66000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>68000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,393 +1579,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-118000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-27000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>50000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>41000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>107000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>129000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>52000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>111000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-232000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>86000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>28000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>105000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-171000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>35000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-10000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-35000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>76000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>62000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>37000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>49000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>57000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E21" s="3">
         <v>126000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>169000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>186000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>159000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>251000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>241000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>334000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>158000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-133000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>218000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>115000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>105000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-95000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>106000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>57000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>94000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>147000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>165000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>120000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>142000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>153000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E22" s="3">
         <v>12000</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6000</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>6000</v>
       </c>
       <c r="L22" s="3">
         <v>6000</v>
       </c>
       <c r="M22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N22" s="3">
         <v>5000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>9000</v>
       </c>
       <c r="O22" s="3">
         <v>9000</v>
       </c>
       <c r="P22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>12000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>6000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E23" s="3">
         <v>62000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>119000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>133000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>104000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>199000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>269000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>85000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>116000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-174000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>174000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>69000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>65000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-141000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>60000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>54000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>107000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>124000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>84000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>112000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>119000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-46000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-69000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>142000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-71000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-65000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>26000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>26000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-27000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>43000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>25000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>28000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>15000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,162 +2057,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E26" s="3">
         <v>108000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>104000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>122000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>94000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>176000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>179000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>265000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>154000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-103000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>179000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>58000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>57000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-76000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>34000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>28000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>134000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>81000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>59000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>84000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>104000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E27" s="3">
         <v>108000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>103000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>121000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>94000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>176000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>179000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>265000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>154000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-103000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>179000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>58000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>57000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-77000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>35000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>28000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>135000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>81000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>58000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>85000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>103000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2297,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2269,8 +2329,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2287,23 +2347,23 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-14000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>4000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2317,8 +2377,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2457,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,162 +2537,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>118000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>27000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-50000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-41000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-107000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-129000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-52000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-111000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>232000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-86000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-105000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>171000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-35000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>10000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>35000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-76000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-62000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-37000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-49000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-57000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E33" s="3">
         <v>108000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>103000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>121000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>94000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>176000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>179000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>265000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>154000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-103000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>179000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>58000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>57000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-91000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>35000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>32000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>81000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>58000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>85000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>103000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,167 +2777,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E35" s="3">
         <v>108000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>103000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>121000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>94000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>176000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>179000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>265000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>154000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-103000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>179000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>58000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>57000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-91000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>35000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>32000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>81000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>58000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>85000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>103000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2974,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,674 +3004,699 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E41" s="3">
         <v>95000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>94000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>75000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>65000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>76000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>92000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>79000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>101000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>125000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>121000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>110000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>59000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>194000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>78000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>79000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>116000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>61000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>70000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>43000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>77000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1023000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1101000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1295000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1416000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1516000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1483000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1384000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1465000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1245000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1177000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1125000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1434000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1418000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1440000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1488000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1336000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1590000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1266000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1265000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1576000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1358000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1391000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1286000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1277000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>884000</v>
+      </c>
+      <c r="E43" s="3">
         <v>944000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>843000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>762000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>657000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>642000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>672000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>532000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>525000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>551000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>691000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>646000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>529000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>546000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>504000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>551000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>506000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>521000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>608000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>482000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>622000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>605000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>606000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>627000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1816000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1844000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1698000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1663000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1542000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1497000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1360000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1178000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1062000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>989000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1122000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1086000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>916000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>871000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>988000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>815000</v>
-      </c>
-      <c r="S44" s="3">
-        <v>874000</v>
       </c>
       <c r="T44" s="3">
         <v>874000</v>
       </c>
       <c r="U44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="V44" s="3">
         <v>797000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>780000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>828000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>722000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>842000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>762000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E45" s="3">
         <v>157000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>139000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>131000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>137000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>164000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>130000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>103000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>91000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>118000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>115000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>198000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>112000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>107000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>143000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>131000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>124000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>126000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>133000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>174000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>120000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>119000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>109000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>105000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3955000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4141000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4069000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4047000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3914000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3878000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3611000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3354000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3015000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2914000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3154000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3414000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3096000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3074000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3182000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3027000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3172000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2866000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2903000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3128000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2989000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2907000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2886000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2848000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>903000</v>
+      </c>
+      <c r="E47" s="3">
         <v>833000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>679000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>651000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>656000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>666000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>677000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>698000</v>
       </c>
       <c r="K47" s="3">
         <v>698000</v>
       </c>
       <c r="L47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="M47" s="3">
         <v>706000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>731000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>735000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>734000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>783000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>789000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>804000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>823000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>849000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>866000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>851000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>863000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>843000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>805000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>799000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2630000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2587000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2514000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2388000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2286000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2160000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2032000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1972000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1918000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1908000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1919000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1877000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1801000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1741000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1696000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1160000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1098000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1104000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1126000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1077000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1064000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1034000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1024000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1006000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E49" s="3">
         <v>198000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>161000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>208000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>165000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>164000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>172000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>221000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>164000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>163000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>164000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>222000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>165000</v>
       </c>
       <c r="P49" s="3">
         <v>165000</v>
       </c>
       <c r="Q49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="R49" s="3">
         <v>166000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>236000</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -3594,11 +3704,11 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>22000</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
@@ -3606,14 +3716,17 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3">
         <v>22000</v>
       </c>
-      <c r="AA49" s="3" t="s">
+      <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3802,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,85 +3882,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E52" s="3">
         <v>51000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>246000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>209000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>236000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>202000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>201000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>154000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>181000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>182000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>187000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>101000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>150000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>138000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>143000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>80000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>342000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>357000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>360000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>83000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>77000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>78000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>93000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>80000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,85 +4042,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7744000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7810000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7669000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7503000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7257000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7070000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6693000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6399000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5976000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5873000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6155000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6349000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5946000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5901000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5976000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5307000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5435000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5176000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5255000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5161000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4993000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4862000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4808000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4755000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4154,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,470 +4184,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E57" s="3">
         <v>539000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>466000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>404000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>398000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>390000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>338000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>276000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>210000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>189000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>336000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>368000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>235000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>262000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>297000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>238000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>227000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>238000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>221000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>272000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>190000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>188000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>163000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>216000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E58" s="3">
         <v>554000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>531000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>547000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>475000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>483000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>355000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>287000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>337000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>309000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>450000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>313000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>272000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>216000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>305000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>187000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>172000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>165000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>221000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>215000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>147000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>160000</v>
       </c>
       <c r="Y58" s="3">
         <v>160000</v>
       </c>
       <c r="Z58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>138000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>687000</v>
+      </c>
+      <c r="E59" s="3">
         <v>664000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>635000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>601000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>565000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>540000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>490000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>513000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>463000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>524000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>488000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>515000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>452000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>427000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>434000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>359000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>370000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>339000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>345000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>331000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>438000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>393000</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>431000</v>
       </c>
       <c r="Z59" s="3">
         <v>431000</v>
       </c>
       <c r="AA59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="AB59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1598000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1757000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1632000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1552000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1438000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1413000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1183000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1076000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1010000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1022000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1274000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1189000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>959000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>905000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1036000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>784000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>769000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>742000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>787000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>818000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>775000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>741000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>754000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>785000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>703000</v>
+      </c>
+      <c r="E61" s="3">
         <v>704000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>705000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>812000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>709000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>711000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>704000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>785000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>760000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>749000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>732000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>770000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>763000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>751000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>735000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>739000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>741000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>508000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>522000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>482000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>490000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>495000</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>499000</v>
       </c>
       <c r="Z61" s="3">
         <v>499000</v>
       </c>
       <c r="AA61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="AB61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>672000</v>
+      </c>
+      <c r="E62" s="3">
         <v>710000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>798000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>705000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>820000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>763000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>786000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>710000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>661000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>712000</v>
       </c>
       <c r="M62" s="3">
         <v>712000</v>
       </c>
       <c r="N62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="O62" s="3">
         <v>789000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>814000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>826000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>835000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>455000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>499000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>508000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>513000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>453000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>332000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>308000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>298000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>296000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4742,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4822,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,85 +4902,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2992000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3190000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3154000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3087000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2984000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2898000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2684000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2582000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2441000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2493000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2728000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2758000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2546000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2492000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2616000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1989000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2023000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1773000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1837000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1764000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1610000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1557000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1563000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1593000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5014,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5092,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5172,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5252,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,85 +5332,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5197000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5053000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4947000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4847000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4729000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4637000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4463000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4287000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3978000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3833000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3861000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4030000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3811000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3823000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3768000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3727000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3825000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3792000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3787000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3750000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3683000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3604000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3548000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3465000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5492,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5572,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,85 +5652,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4752000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4620000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4515000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4416000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4273000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4172000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4009000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3817000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3535000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3380000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3427000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3591000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3400000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3409000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3360000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3318000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3412000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3403000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3418000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3397000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3383000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3305000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3245000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3162000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,167 +5812,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E81" s="3">
         <v>108000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>103000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>121000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>94000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>176000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>179000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>265000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>154000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-103000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>179000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>58000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>57000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-91000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>35000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>32000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>81000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>58000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>85000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>103000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,85 +6009,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E83" s="3">
         <v>52000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>50000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>47000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>45000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>63000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>36000</v>
       </c>
       <c r="M83" s="3">
         <v>36000</v>
       </c>
       <c r="N83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="O83" s="3">
         <v>35000</v>
       </c>
       <c r="P83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="Q83" s="3">
         <v>34000</v>
       </c>
       <c r="R83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="S83" s="3">
         <v>33000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>34000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>35000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>32000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>30000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>32000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>29000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>27000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>28000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6167,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6247,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6327,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6407,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,85 +6487,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E89" s="3">
         <v>11000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>106000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>164000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>82000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-150000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>257000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>34000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>106000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-106000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>101000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>31000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>146000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-107000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>72000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>102000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>56000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>47000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>183000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>128000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,85 +6599,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-112000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-161000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-136000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-101000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-127000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-96000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-99000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-53000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-88000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-105000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-83000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-67000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-37000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-36000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-55000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-40000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6757,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,85 +6837,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-206000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-97000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-176000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-174000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>69000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-249000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>17000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-69000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-127000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>37000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-340000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-29000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-50000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-15000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-156000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-45000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-139000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +6949,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6726,49 +6959,49 @@
         <v>-2000</v>
       </c>
       <c r="E96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="F96" s="3">
         <v>-3000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="H96" s="3">
         <v>-2000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="J96" s="3">
         <v>-3000</v>
       </c>
       <c r="K96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="L96" s="3">
         <v>-2000</v>
       </c>
       <c r="M96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="N96" s="3">
         <v>-3000</v>
       </c>
       <c r="O96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="P96" s="3">
         <v>-2000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-3000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-2000</v>
       </c>
       <c r="T96" s="3">
         <v>-2000</v>
@@ -6777,10 +7010,10 @@
         <v>-2000</v>
       </c>
       <c r="V96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-2000</v>
       </c>
       <c r="X96" s="3">
         <v>-2000</v>
@@ -6789,13 +7022,16 @@
         <v>-2000</v>
       </c>
       <c r="Z96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7107,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7187,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,85 +7267,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E100" s="3">
         <v>11000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>40000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>121000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>71000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-29000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-145000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>77000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-41000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>49000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-96000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>99000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>240000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-60000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>59000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-16000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>19000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-26000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7114,35 +7362,35 @@
         <v>1000</v>
       </c>
       <c r="F101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -7150,110 +7398,116 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Z101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-30000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>27000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-22000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>51000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-135000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>116000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-21000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-16000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>55000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-9000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>27000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-34000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-36000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,356 +665,369 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2666000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2895000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2973000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2709000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2464000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2276000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2430000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2059000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1990000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1645000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1808000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1683000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1812000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1663000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1822000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1543000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1662000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1651000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1691000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1579000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1586000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1402000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1422000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1399000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1373000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2648000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2692000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2473000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2277000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2076000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2177000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1881000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1760000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1517000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1717000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1548000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1626000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1589000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1686000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1493000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1549000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1529000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1575000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1407000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1452000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1254000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1293000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1261000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1235000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E10" s="3">
         <v>247000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>281000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>236000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>187000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>253000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>178000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>230000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>128000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>91000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>135000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>186000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>74000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>136000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>50000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>113000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>122000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>116000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>172000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>134000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>148000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>129000</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>138000</v>
       </c>
       <c r="AA10" s="3">
         <v>138000</v>
       </c>
       <c r="AB10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="AC10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,8 +1056,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1123,8 +1137,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1203,8 +1220,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1283,8 +1303,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1363,8 +1386,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1390,168 +1416,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2502000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2740000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2781000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2563000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2375000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2164000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2265000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1967000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1848000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1606000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1797000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1620000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1715000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1669000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1769000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1577000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1619000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1614000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1659000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1482000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1545000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1331000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1368000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1333000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1305000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E18" s="3">
         <v>155000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>192000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>146000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>89000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>112000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>165000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>92000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>142000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>63000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>97000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-34000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>43000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>37000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>32000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>97000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>41000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>71000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>54000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>66000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>68000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1580,408 +1613,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-118000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>50000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>41000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>107000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>129000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>52000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>111000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-232000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>86000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>28000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>105000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-171000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>35000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-10000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-35000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>76000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>62000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>37000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>49000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>57000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E21" s="3">
         <v>219000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>126000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>169000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>186000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>159000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>251000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>241000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>334000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>128000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>158000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-133000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>218000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>115000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>105000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-95000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>106000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>57000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>94000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>147000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>165000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>120000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>142000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>153000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E22" s="3">
         <v>13000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12000</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>6000</v>
       </c>
       <c r="M22" s="3">
         <v>6000</v>
       </c>
       <c r="N22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O22" s="3">
         <v>5000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>9000</v>
       </c>
       <c r="P22" s="3">
         <v>9000</v>
       </c>
       <c r="Q22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="R22" s="3">
         <v>12000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>7000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>6000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E23" s="3">
         <v>145000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>62000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>119000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>133000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>104000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>199000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>269000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>85000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>116000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-174000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>174000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>69000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>65000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-141000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>60000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>54000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>107000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>124000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>84000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>112000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>119000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-46000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>24000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-69000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>142000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-71000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-65000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>26000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>26000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-27000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>43000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>25000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>28000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>15000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2060,168 +2109,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E26" s="3">
         <v>146000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>108000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>104000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>122000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>94000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>176000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>179000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>265000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>154000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-103000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>179000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>58000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>57000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-76000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>34000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>28000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>134000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>81000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>59000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>84000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>104000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E27" s="3">
         <v>146000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>108000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>103000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>121000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>94000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>176000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>179000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>265000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>154000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-103000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>179000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>58000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>57000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-77000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>35000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>28000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>135000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>81000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>58000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>85000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>103000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2300,8 +2358,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2332,8 +2393,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2350,23 +2411,23 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-14000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>4000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2380,8 +2441,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2460,8 +2524,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2540,168 +2607,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>118000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-50000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-41000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-107000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-129000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-52000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-111000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>232000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-86000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-28000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-105000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>171000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-35000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>10000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>35000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-76000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-62000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-37000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-49000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-57000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E33" s="3">
         <v>146000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>108000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>103000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>121000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>94000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>176000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>179000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>265000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>154000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-103000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>179000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>58000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>57000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-91000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>35000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>32000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>81000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>58000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>85000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>103000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2780,173 +2856,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E35" s="3">
         <v>146000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>108000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>103000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>121000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>94000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>176000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>179000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>265000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>154000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-103000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>179000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>58000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>57000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-91000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>35000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>32000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>81000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>58000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>85000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>103000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2975,8 +3060,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3005,701 +3091,726 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E41" s="3">
         <v>70000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>95000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>94000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>75000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>62000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>92000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>65000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>76000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>92000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>79000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>101000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>125000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>121000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>110000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>59000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>194000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>78000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>79000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>100000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>116000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>61000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>70000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>43000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>77000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1086000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1023000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1101000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1295000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1416000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1516000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1483000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1384000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1465000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1245000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1177000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1125000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1434000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1418000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1440000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1488000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1336000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1590000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1266000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1265000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1576000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1358000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1391000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1286000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1277000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>923000</v>
+      </c>
+      <c r="E43" s="3">
         <v>884000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>944000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>843000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>762000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>657000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>642000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>672000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>532000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>525000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>551000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>691000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>646000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>529000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>546000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>504000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>551000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>506000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>521000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>608000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>482000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>622000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>605000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>606000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>627000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1670000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1816000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1844000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1698000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1663000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1542000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1497000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1360000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1178000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1062000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>989000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1122000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1086000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>916000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>871000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>988000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>815000</v>
-      </c>
-      <c r="T44" s="3">
-        <v>874000</v>
       </c>
       <c r="U44" s="3">
         <v>874000</v>
       </c>
       <c r="V44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="W44" s="3">
         <v>797000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>780000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>828000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>722000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>842000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>762000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E45" s="3">
         <v>162000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>157000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>139000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>131000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>137000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>164000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>130000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>103000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>91000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>118000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>115000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>198000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>112000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>107000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>143000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>131000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>124000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>126000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>133000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>174000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>120000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>119000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>109000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>105000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4017000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3955000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4141000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4069000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4047000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3914000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3878000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3611000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3354000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3015000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2914000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3154000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3414000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3096000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3074000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3182000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3027000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3172000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2866000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2903000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3128000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2989000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2907000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2886000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2848000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>753000</v>
+      </c>
+      <c r="E47" s="3">
         <v>903000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>833000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>679000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>651000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>656000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>666000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>677000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>698000</v>
       </c>
       <c r="L47" s="3">
         <v>698000</v>
       </c>
       <c r="M47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="N47" s="3">
         <v>706000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>731000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>735000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>734000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>783000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>789000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>804000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>823000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>849000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>866000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>851000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>863000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>843000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>805000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>799000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2691000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2630000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2587000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2514000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2388000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2286000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2160000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2032000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1972000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1918000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1908000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1919000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1877000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1801000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1741000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1696000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1160000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1098000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1104000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1126000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1077000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1064000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1034000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1024000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1006000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E49" s="3">
         <v>194000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>198000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>161000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>208000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>165000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>164000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>172000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>221000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>164000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>163000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>164000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>222000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>165000</v>
       </c>
       <c r="Q49" s="3">
         <v>165000</v>
       </c>
       <c r="R49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="S49" s="3">
         <v>166000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>236000</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
@@ -3707,11 +3818,11 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3">
         <v>22000</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
@@ -3719,14 +3830,17 @@
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB49" s="3">
         <v>22000</v>
       </c>
-      <c r="AB49" s="3" t="s">
+      <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3805,8 +3919,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3885,88 +4002,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E52" s="3">
         <v>62000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>51000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>246000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>209000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>236000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>202000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>201000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>154000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>181000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>182000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>187000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>101000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>150000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>138000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>143000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>80000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>342000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>357000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>360000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>83000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>77000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>78000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>93000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>80000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4045,88 +4168,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7902000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7744000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7810000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7669000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7503000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7257000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7070000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6693000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6399000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5976000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5873000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6155000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6349000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5946000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5901000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5976000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5307000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5435000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5176000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5255000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5161000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4993000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4862000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4808000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4755000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4155,8 +4284,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4185,488 +4315,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>429000</v>
+      </c>
+      <c r="E57" s="3">
         <v>421000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>539000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>466000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>404000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>398000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>390000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>338000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>276000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>210000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>189000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>336000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>368000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>235000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>262000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>297000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>238000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>227000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>238000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>221000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>272000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>190000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>188000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>163000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>216000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E58" s="3">
         <v>490000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>554000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>531000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>547000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>475000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>483000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>355000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>287000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>337000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>309000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>450000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>313000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>272000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>216000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>305000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>187000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>172000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>165000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>221000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>215000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>147000</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>160000</v>
       </c>
       <c r="Z58" s="3">
         <v>160000</v>
       </c>
       <c r="AA58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="AB58" s="3">
         <v>138000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E59" s="3">
         <v>687000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>664000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>635000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>601000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>565000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>540000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>490000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>513000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>463000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>524000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>488000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>515000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>452000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>427000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>434000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>359000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>370000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>339000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>345000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>331000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>438000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>393000</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>431000</v>
       </c>
       <c r="AA59" s="3">
         <v>431000</v>
       </c>
       <c r="AB59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="AC59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1529000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1598000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1757000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1632000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1552000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1438000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1413000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1183000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1076000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1010000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1022000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1274000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1189000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>959000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>905000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1036000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>784000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>769000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>742000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>787000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>818000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>775000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>741000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>754000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>785000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>845000</v>
+      </c>
+      <c r="E61" s="3">
         <v>703000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>704000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>705000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>812000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>709000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>711000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>704000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>785000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>760000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>749000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>732000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>770000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>763000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>751000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>735000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>739000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>741000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>508000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>522000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>482000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>490000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>495000</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>499000</v>
       </c>
       <c r="AA61" s="3">
         <v>499000</v>
       </c>
       <c r="AB61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="AC61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E62" s="3">
         <v>672000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>710000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>798000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>705000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>820000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>763000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>786000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>710000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>661000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>712000</v>
       </c>
       <c r="N62" s="3">
         <v>712000</v>
       </c>
       <c r="O62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="P62" s="3">
         <v>789000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>814000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>826000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>835000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>455000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>499000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>508000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>513000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>453000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>332000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>308000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>298000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>296000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4745,8 +4894,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4825,8 +4977,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4905,88 +5060,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2906000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2992000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3190000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3154000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3087000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2984000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2898000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2684000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2582000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2441000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2493000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2728000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2758000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2546000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2492000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2616000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1989000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2023000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1773000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1837000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1764000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1610000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1557000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1563000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1593000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5015,8 +5176,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5095,8 +5257,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5175,8 +5340,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5255,8 +5423,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5335,88 +5506,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5417000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5197000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5053000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4947000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4847000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4729000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4637000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4463000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4287000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3978000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3833000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3861000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4030000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3811000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3823000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3768000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3727000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3825000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3792000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3787000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3750000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3683000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3604000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3548000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3465000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5495,8 +5672,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5575,8 +5755,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5655,88 +5838,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4996000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4752000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4620000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4515000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4416000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4273000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4172000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4009000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3817000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3535000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3380000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3427000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3591000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3400000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3409000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3360000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3318000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3412000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3403000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3418000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3397000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3383000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3305000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3245000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3162000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5815,173 +6004,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E81" s="3">
         <v>146000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>108000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>103000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>121000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>94000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>176000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>179000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>265000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>154000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-103000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>179000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>58000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>57000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-91000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>35000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>32000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>81000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>58000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>85000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>103000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6010,88 +6208,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E83" s="3">
         <v>61000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>52000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>50000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>47000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>45000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>37000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>36000</v>
       </c>
       <c r="N83" s="3">
         <v>36000</v>
       </c>
       <c r="O83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="P83" s="3">
         <v>35000</v>
       </c>
       <c r="Q83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="R83" s="3">
         <v>34000</v>
       </c>
       <c r="S83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="T83" s="3">
         <v>33000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>34000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>35000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>32000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>30000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>32000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>29000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>27000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>28000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6170,8 +6372,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6250,8 +6455,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6330,8 +6538,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6410,8 +6621,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6490,88 +6704,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E89" s="3">
         <v>260000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>106000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>164000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>82000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-150000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>257000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>34000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>106000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-106000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>101000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>31000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>146000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-107000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>72000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>102000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>56000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>47000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>21000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>183000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>128000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6600,88 +6820,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-94000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-112000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-161000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-136000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-101000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-127000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-96000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-99000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-52000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-53000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-88000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-105000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-73000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-83000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-67000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-37000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-36000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-55000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-36000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6760,8 +6984,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6840,88 +7067,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-206000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-97000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-176000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-174000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>69000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-249000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>17000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-127000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>37000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-340000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-50000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-156000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-45000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-139000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6950,61 +7183,62 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="E96" s="3">
         <v>-2000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="G96" s="3">
         <v>-3000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="I96" s="3">
         <v>-2000</v>
       </c>
       <c r="J96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="K96" s="3">
         <v>-3000</v>
       </c>
       <c r="L96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="M96" s="3">
         <v>-2000</v>
       </c>
       <c r="N96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="O96" s="3">
         <v>-3000</v>
       </c>
       <c r="P96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="Q96" s="3">
         <v>-2000</v>
       </c>
       <c r="R96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-3000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-2000</v>
       </c>
       <c r="U96" s="3">
         <v>-2000</v>
@@ -7013,10 +7247,10 @@
         <v>-2000</v>
       </c>
       <c r="W96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-2000</v>
       </c>
       <c r="Y96" s="3">
         <v>-2000</v>
@@ -7025,13 +7259,16 @@
         <v>-2000</v>
       </c>
       <c r="AA96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7110,8 +7347,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7190,8 +7430,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7270,93 +7513,99 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-80000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>40000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>121000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>71000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-145000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>77000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-41000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>49000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-96000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>99000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>240000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-60000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>59000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>19000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-26000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1000</v>
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
         <v>1000</v>
@@ -7365,35 +7614,35 @@
         <v>1000</v>
       </c>
       <c r="G101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -7401,113 +7650,119 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="AA101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-30000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>27000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-22000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>51000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-135000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>116000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-21000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-16000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>55000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>27000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-34000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-36000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,382 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2499000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2666000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2895000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2973000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2709000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2464000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2276000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2430000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2059000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1990000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1645000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1808000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1683000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1812000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1663000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1822000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1543000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1662000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1651000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1691000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1579000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1586000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1402000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1422000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1399000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1373000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2465000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2648000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2692000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2473000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2277000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2076000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2177000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1881000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1760000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1517000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1717000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1548000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1626000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1589000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1686000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1493000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1549000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1529000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1575000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1407000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1452000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1254000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1293000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1261000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1235000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E10" s="3">
         <v>266000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>247000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>281000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>236000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>187000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>253000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>178000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>230000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>128000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>91000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>135000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>186000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>74000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>136000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>50000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>113000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>122000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>116000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>172000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>134000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>148000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>129000</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>138000</v>
       </c>
       <c r="AB10" s="3">
         <v>138000</v>
       </c>
       <c r="AC10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="AD10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,8 +1070,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1140,8 +1154,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,8 +1240,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1306,8 +1326,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1389,8 +1412,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1443,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2562000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2502000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2740000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2781000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2563000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2375000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2164000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2265000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1967000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1848000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1606000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1797000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1620000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1715000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1669000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1769000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1577000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1619000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1614000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1659000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1482000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1545000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1331000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1368000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1333000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1305000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E18" s="3">
         <v>164000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>155000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>192000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>146000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>89000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>112000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>165000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>142000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>63000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>97000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-34000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>43000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>37000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>32000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>97000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>41000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>71000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>54000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>66000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>68000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,423 +1647,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E20" s="3">
         <v>106000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-118000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-27000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>50000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>41000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>107000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>129000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>52000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>111000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-232000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>86000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>28000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>105000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-171000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>35000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-10000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-35000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>76000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>62000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>37000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>49000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>57000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E21" s="3">
         <v>342000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>219000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>126000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>169000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>186000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>159000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>251000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>241000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>334000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>128000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>158000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-133000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>218000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>115000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>105000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-95000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>106000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>57000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>94000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>147000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>165000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>120000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>142000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>153000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="3">
         <v>17000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12000</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>6000</v>
       </c>
       <c r="N22" s="3">
         <v>6000</v>
       </c>
       <c r="O22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P22" s="3">
         <v>5000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>9000</v>
       </c>
       <c r="Q22" s="3">
         <v>9000</v>
       </c>
       <c r="R22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="S22" s="3">
         <v>12000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>11000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>7000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>6000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E23" s="3">
         <v>253000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>145000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>62000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>119000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>133000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>104000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>199000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>269000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>85000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>116000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-174000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>174000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>69000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>65000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-141000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>60000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>54000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>107000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>124000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>84000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>112000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>119000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>29000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-46000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-69000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>142000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-71000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-11000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-65000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>26000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>26000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-27000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>43000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>25000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>28000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>15000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,174 +2161,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E26" s="3">
         <v>224000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>146000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>108000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>104000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>122000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>94000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>176000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>179000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>265000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>154000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-103000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>179000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>58000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>57000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-76000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>34000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>28000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>134000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>81000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>59000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>84000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>104000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E27" s="3">
         <v>223000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>146000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>108000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>103000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>121000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>94000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>176000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>179000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>265000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>154000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-103000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>179000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>58000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>57000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-77000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>35000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>28000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>135000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>81000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>58000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>85000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>103000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2361,8 +2419,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2457,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2414,23 +2475,23 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-14000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>4000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2444,8 +2505,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,174 +2677,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-106000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>118000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>27000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-50000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-41000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-107000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-129000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-52000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-111000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>232000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-28000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-105000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>171000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-35000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>10000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>35000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-76000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-62000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-37000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-49000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-57000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E33" s="3">
         <v>223000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>146000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>108000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>103000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>121000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>94000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>176000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>179000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>265000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>154000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-103000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>179000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>58000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>57000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-91000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>35000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>32000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>23000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>81000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>58000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>85000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>103000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,179 +2935,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E35" s="3">
         <v>223000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>146000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>108000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>103000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>121000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>94000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>176000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>179000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>265000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>154000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-103000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>179000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>58000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>57000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-91000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>35000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>32000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>23000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>81000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>58000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>85000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>103000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,728 +3178,753 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E41" s="3">
         <v>199000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>70000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>95000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>94000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>75000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>62000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>92000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>65000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>76000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>92000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>79000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>101000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>125000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>121000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>110000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>59000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>194000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>78000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>79000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>100000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>116000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>61000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>70000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>43000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>77000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1213000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1086000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1023000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1101000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1295000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1416000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1516000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1483000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1384000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1465000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1245000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1177000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1125000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1434000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1418000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1440000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1488000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1336000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1590000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1266000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1265000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1576000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1358000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1391000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1286000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1277000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>834000</v>
+      </c>
+      <c r="E43" s="3">
         <v>923000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>884000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>944000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>843000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>762000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>657000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>642000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>672000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>532000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>525000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>551000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>691000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>646000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>529000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>546000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>504000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>551000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>506000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>521000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>608000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>482000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>622000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>605000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>606000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>627000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1587000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1670000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1816000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1844000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1698000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1663000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1542000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1497000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1360000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1178000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1062000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>989000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1122000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1086000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>916000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>871000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>988000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>815000</v>
-      </c>
-      <c r="U44" s="3">
-        <v>874000</v>
       </c>
       <c r="V44" s="3">
         <v>874000</v>
       </c>
       <c r="W44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="X44" s="3">
         <v>797000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>780000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>828000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>722000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>842000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>762000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E45" s="3">
         <v>139000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>162000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>157000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>139000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>131000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>137000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>164000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>130000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>91000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>118000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>115000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>198000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>112000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>107000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>143000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>131000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>124000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>126000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>133000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>174000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>120000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>119000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>109000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>105000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3866000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4017000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3955000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4141000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4069000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4047000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3914000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3878000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3611000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3354000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3015000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2914000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3154000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3414000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3096000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3074000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3182000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3027000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3172000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2866000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2903000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3128000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2989000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2907000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2886000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2848000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>759000</v>
+      </c>
+      <c r="E47" s="3">
         <v>753000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>903000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>833000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>679000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>651000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>656000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>666000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>677000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>698000</v>
       </c>
       <c r="M47" s="3">
         <v>698000</v>
       </c>
       <c r="N47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="O47" s="3">
         <v>706000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>731000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>735000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>734000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>783000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>789000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>804000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>823000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>849000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>866000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>851000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>863000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>843000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>805000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>799000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2680000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2691000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2630000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2587000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2514000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2388000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2286000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2160000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2032000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1972000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1918000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1908000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1919000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1877000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1801000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1741000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1696000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1160000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1098000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1104000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1126000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1077000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1064000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1034000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1024000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1006000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E49" s="3">
         <v>185000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>194000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>198000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>161000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>208000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>165000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>164000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>172000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>221000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>164000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>163000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>164000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>222000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>165000</v>
       </c>
       <c r="R49" s="3">
         <v>165000</v>
       </c>
       <c r="S49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="T49" s="3">
         <v>166000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>236000</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
@@ -3821,11 +3932,11 @@
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>22000</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
@@ -3833,14 +3944,17 @@
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="3">
         <v>22000</v>
       </c>
-      <c r="AC49" s="3" t="s">
+      <c r="AD49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,91 +4122,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E52" s="3">
         <v>256000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>62000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>51000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>246000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>209000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>236000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>202000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>201000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>154000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>181000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>182000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>187000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>101000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>150000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>138000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>143000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>80000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>342000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>357000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>360000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>83000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>77000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>78000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>93000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>80000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,91 +4294,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7795000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7902000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7744000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7810000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7669000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7503000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7257000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7070000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6693000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6399000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5976000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5873000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6155000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6349000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5946000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5901000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5976000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5307000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5435000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5176000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5255000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5161000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4993000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4862000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4808000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4755000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,506 +4446,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E57" s="3">
         <v>429000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>421000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>539000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>466000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>404000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>398000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>390000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>338000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>276000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>210000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>189000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>336000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>368000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>235000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>262000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>297000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>238000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>227000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>238000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>221000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>272000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>190000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>188000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>163000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>216000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E58" s="3">
         <v>513000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>490000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>554000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>531000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>547000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>475000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>483000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>355000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>287000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>337000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>309000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>450000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>313000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>272000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>216000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>305000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>187000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>172000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>165000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>221000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>215000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>147000</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>160000</v>
       </c>
       <c r="AA58" s="3">
         <v>160000</v>
       </c>
       <c r="AB58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="AC58" s="3">
         <v>138000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>626000</v>
+      </c>
+      <c r="E59" s="3">
         <v>587000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>687000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>664000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>635000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>601000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>565000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>540000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>490000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>513000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>463000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>524000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>488000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>515000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>452000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>427000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>434000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>359000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>370000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>339000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>345000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>331000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>438000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>393000</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>431000</v>
       </c>
       <c r="AB59" s="3">
         <v>431000</v>
       </c>
       <c r="AC59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="AD59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1529000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1598000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1757000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1632000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1552000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1438000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1413000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1183000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1076000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1010000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1022000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1274000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1189000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>959000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>905000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1036000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>784000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>769000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>742000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>787000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>818000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>775000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>741000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>754000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>785000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>699000</v>
+      </c>
+      <c r="E61" s="3">
         <v>845000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>703000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>704000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>705000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>812000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>709000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>711000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>704000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>785000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>760000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>749000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>732000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>770000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>763000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>751000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>735000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>739000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>741000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>508000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>522000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>482000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>490000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>495000</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>499000</v>
       </c>
       <c r="AB61" s="3">
         <v>499000</v>
       </c>
       <c r="AC61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="AD61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>634000</v>
+      </c>
+      <c r="E62" s="3">
         <v>514000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>672000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>710000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>798000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>705000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>820000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>763000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>786000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>710000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>661000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>712000</v>
       </c>
       <c r="O62" s="3">
         <v>712000</v>
       </c>
       <c r="P62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>789000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>814000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>826000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>835000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>455000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>499000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>508000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>513000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>453000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>332000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>308000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>298000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>296000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,91 +5218,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2804000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2906000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2992000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3190000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3154000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3087000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2984000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2898000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2684000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2582000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2441000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2493000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2728000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2758000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2546000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2492000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2616000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1989000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2023000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1773000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1837000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1764000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1610000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1557000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1563000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1593000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5508,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,91 +5680,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5398000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5417000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5197000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5053000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4947000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4847000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4729000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4637000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4463000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4287000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3978000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3833000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3861000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4030000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3811000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3823000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3768000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3727000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3825000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3792000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3787000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3750000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3683000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3604000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3548000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3465000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,91 +6024,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4991000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4996000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4752000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4620000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4515000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4416000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4273000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4172000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4009000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3817000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3535000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3380000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3427000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3591000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3400000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3409000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3360000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3318000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3412000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3403000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3418000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3397000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3383000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3305000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3245000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3162000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6196,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E81" s="3">
         <v>223000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>146000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>108000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>103000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>121000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>94000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>176000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>179000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>265000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>154000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-103000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>179000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>58000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>57000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-91000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>35000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>32000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>23000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>81000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>58000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>85000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>103000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,91 +6407,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E83" s="3">
         <v>72000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>61000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>52000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>50000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>47000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>45000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>37000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>36000</v>
       </c>
       <c r="O83" s="3">
         <v>36000</v>
       </c>
       <c r="P83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="Q83" s="3">
         <v>35000</v>
       </c>
       <c r="R83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="S83" s="3">
         <v>34000</v>
       </c>
       <c r="T83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="U83" s="3">
         <v>33000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>35000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>32000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>30000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>32000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>29000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>27000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>28000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +6921,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E89" s="3">
         <v>299000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>260000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>106000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>164000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>82000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-150000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>257000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>34000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>106000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-106000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>101000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>31000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>146000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-107000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>72000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>102000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>56000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>8000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>47000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>21000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>183000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>128000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7041,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-107000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-94000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-112000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-161000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-136000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-101000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-127000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-96000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-99000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-52000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-53000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-88000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-105000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-73000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-83000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-67000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-37000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-36000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-55000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-42000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-36000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7297,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-191000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-112000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-206000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-97000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-176000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-174000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>69000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-249000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>17000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-69000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-127000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>37000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-340000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-50000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-156000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-45000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-139000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,8 +7417,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7193,55 +7427,55 @@
         <v>-3000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="F96" s="3">
         <v>-2000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="H96" s="3">
         <v>-3000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="J96" s="3">
         <v>-2000</v>
       </c>
       <c r="K96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="L96" s="3">
         <v>-3000</v>
       </c>
       <c r="M96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="N96" s="3">
         <v>-2000</v>
       </c>
       <c r="O96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="P96" s="3">
         <v>-3000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="R96" s="3">
         <v>-2000</v>
       </c>
       <c r="S96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-2000</v>
       </c>
       <c r="V96" s="3">
         <v>-2000</v>
@@ -7250,10 +7484,10 @@
         <v>-2000</v>
       </c>
       <c r="X96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-2000</v>
       </c>
       <c r="Z96" s="3">
         <v>-2000</v>
@@ -7262,13 +7496,16 @@
         <v>-2000</v>
       </c>
       <c r="AB96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,99 +7759,105 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-56000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-80000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>40000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>121000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>71000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-145000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>77000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>49000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-96000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>99000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>240000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-60000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>59000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>19000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-26000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1000</v>
       </c>
       <c r="F101" s="3">
         <v>1000</v>
@@ -7617,35 +7866,35 @@
         <v>1000</v>
       </c>
       <c r="H101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -7653,116 +7902,122 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3000</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="AB101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E102" s="3">
         <v>129000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-25000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-30000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-22000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>51000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-135000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>116000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-21000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-16000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>55000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>27000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-34000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-36000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,382 +665,394 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2393000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2499000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2666000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2895000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2973000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2709000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2464000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2276000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2430000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2059000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1990000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1645000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1808000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1683000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1812000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1663000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1822000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1543000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1662000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1651000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1691000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1579000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1586000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1402000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1422000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1399000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1373000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2297000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2465000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2400000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2648000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2692000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2473000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2277000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2076000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2177000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1881000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1760000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1517000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1717000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1548000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1626000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1589000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1686000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1493000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1549000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1529000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1575000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1407000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1452000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1254000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1293000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1261000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1235000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E10" s="3">
         <v>34000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>266000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>247000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>281000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>236000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>187000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>253000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>178000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>230000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>128000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>91000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>135000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>186000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>74000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>136000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>50000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>113000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>122000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>116000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>172000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>134000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>148000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>129000</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>138000</v>
       </c>
       <c r="AC10" s="3">
         <v>138000</v>
       </c>
       <c r="AD10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="AE10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,8 +1083,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1157,8 +1170,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,8 +1259,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1329,8 +1348,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1415,8 +1437,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,180 +1469,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2397000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2562000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2502000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2740000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2781000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2563000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2375000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2164000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2265000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1967000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1848000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1606000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1797000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1620000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1715000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1669000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1769000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1577000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1619000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1614000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1659000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1482000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1545000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1331000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1368000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1333000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1305000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-63000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>164000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>155000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>192000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>146000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>89000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>112000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>165000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>92000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>142000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>63000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>97000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>53000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-34000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>43000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>37000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>32000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>97000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>41000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>71000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>54000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>66000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>68000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1648,438 +1680,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E20" s="3">
         <v>62000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>106000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-118000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>50000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>41000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>107000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>129000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>52000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>111000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-232000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>86000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>28000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>105000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-171000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>35000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-10000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>76000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>62000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>37000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>49000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>57000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E21" s="3">
         <v>70000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>342000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>219000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>126000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>169000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>186000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>159000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>251000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>241000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>334000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>128000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>158000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>218000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>115000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>105000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-95000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>106000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>57000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>94000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>147000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>165000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>120000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>142000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>153000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="3">
         <v>12000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12000</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6000</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>6000</v>
       </c>
       <c r="O22" s="3">
         <v>6000</v>
       </c>
       <c r="P22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>9000</v>
       </c>
       <c r="R22" s="3">
         <v>9000</v>
       </c>
       <c r="S22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="T22" s="3">
         <v>12000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>11000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>9000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>6000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>253000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>145000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>62000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>119000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>133000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>104000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>199000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>269000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>85000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>116000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-174000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>174000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>69000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>65000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-141000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>60000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>11000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>54000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>107000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>124000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>84000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>112000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>119000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>29000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-46000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-69000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>142000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-11000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-65000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>26000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>26000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-27000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>43000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>25000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>28000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>15000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2164,180 +2212,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>224000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>146000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>108000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>104000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>122000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>94000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>176000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>179000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>265000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>154000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>179000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>58000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>57000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-76000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>34000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>28000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>134000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>81000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>59000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>84000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>104000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>223000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>146000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>108000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>103000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>121000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>94000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>176000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>179000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>265000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>154000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>179000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>58000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>57000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-77000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>35000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>28000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>135000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>81000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>58000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>85000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>103000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2422,8 +2479,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2460,8 +2520,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2478,23 +2538,23 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-14000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>4000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2508,8 +2568,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2594,8 +2657,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2680,180 +2746,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-62000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-106000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>118000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-50000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-41000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-107000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-129000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-52000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-111000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>232000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-86000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-28000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-105000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>171000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-35000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>10000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>35000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-76000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-62000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-37000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-49000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-57000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>223000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>146000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>108000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>103000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>121000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>94000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>176000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>179000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>265000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>154000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>179000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>58000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>57000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-91000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>35000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>32000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>23000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>81000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>58000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>85000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>103000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2938,185 +3013,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>223000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>146000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>108000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>103000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>121000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>94000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>176000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>179000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>265000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>154000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>179000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>58000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>57000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-91000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>35000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>32000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>23000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>81000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>58000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>85000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>103000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3147,8 +3231,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3179,438 +3264,454 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E41" s="3">
         <v>84000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>199000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>70000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>95000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>94000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>75000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>92000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>65000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>92000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>79000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>101000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>125000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>121000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>110000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>59000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>194000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>78000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>79000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>100000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>116000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>61000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>70000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>43000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>77000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1225000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1213000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1086000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1023000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1101000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1295000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1416000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1516000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1483000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1384000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1465000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1245000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1177000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1125000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1434000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1418000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1440000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1488000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1336000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1590000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1266000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1265000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1576000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1358000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1391000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1286000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1277000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>816000</v>
+      </c>
+      <c r="E43" s="3">
         <v>834000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>923000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>884000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>944000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>843000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>762000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>657000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>642000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>672000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>532000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>525000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>551000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>691000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>646000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>529000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>546000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>504000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>551000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>506000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>521000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>608000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>482000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>622000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>605000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>606000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>627000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1610000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1587000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1670000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1816000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1844000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1698000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1663000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1542000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1497000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1360000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1178000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1062000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>989000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1122000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1086000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>916000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>871000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>988000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>815000</v>
-      </c>
-      <c r="V44" s="3">
-        <v>874000</v>
       </c>
       <c r="W44" s="3">
         <v>874000</v>
       </c>
       <c r="X44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="Y44" s="3">
         <v>797000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>780000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>828000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>722000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>842000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>762000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E45" s="3">
         <v>148000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>139000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>162000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>157000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>139000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>131000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>137000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>164000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>130000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>103000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>91000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>118000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>115000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>198000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>112000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>107000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>143000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>131000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>124000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>126000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>133000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>174000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>120000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>119000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>109000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>105000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3618,316 +3719,325 @@
         <v>3866000</v>
       </c>
       <c r="E46" s="3">
+        <v>3866000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4017000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3955000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4141000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4069000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4047000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3914000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3878000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3611000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3354000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3015000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2914000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3154000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3414000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3096000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3074000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3182000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3027000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3172000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2866000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2903000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3128000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2989000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2907000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2886000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2848000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>734000</v>
+      </c>
+      <c r="E47" s="3">
         <v>759000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>753000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>903000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>833000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>679000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>651000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>656000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>666000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>677000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>698000</v>
       </c>
       <c r="N47" s="3">
         <v>698000</v>
       </c>
       <c r="O47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="P47" s="3">
         <v>706000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>731000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>735000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>734000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>783000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>789000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>804000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>823000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>849000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>866000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>851000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>863000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>843000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>805000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>799000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2689000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2680000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2691000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2630000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2587000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2514000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2388000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2286000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2160000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2032000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1972000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1918000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1908000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1919000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1877000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1801000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1741000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1696000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1160000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1098000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1104000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1126000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1077000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1064000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1034000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1024000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1006000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E49" s="3">
         <v>161000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>185000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>194000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>198000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>161000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>208000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>165000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>164000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>172000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>221000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>164000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>163000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>164000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>222000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>165000</v>
       </c>
       <c r="S49" s="3">
         <v>165000</v>
       </c>
       <c r="T49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="U49" s="3">
         <v>166000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>236000</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
@@ -3935,11 +4045,11 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3">
         <v>22000</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
@@ -3947,14 +4057,17 @@
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD49" s="3">
         <v>22000</v>
       </c>
-      <c r="AD49" s="3" t="s">
+      <c r="AE49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4039,8 +4152,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4125,94 +4241,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E52" s="3">
         <v>329000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>256000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>62000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>51000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>246000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>209000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>236000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>202000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>201000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>154000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>181000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>182000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>187000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>101000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>150000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>138000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>143000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>80000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>342000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>357000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>360000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>83000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>77000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>78000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>93000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>80000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4297,94 +4419,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7805000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7795000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7902000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7744000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7810000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7669000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7503000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7257000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7070000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6693000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6399000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5976000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5873000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6155000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6349000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5946000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5901000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5976000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5307000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5435000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5176000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5255000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5161000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4993000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4862000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4808000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4755000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4415,8 +4543,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4447,524 +4576,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E57" s="3">
         <v>368000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>429000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>421000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>539000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>466000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>404000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>398000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>390000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>338000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>276000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>210000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>189000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>336000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>368000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>235000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>262000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>297000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>238000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>227000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>238000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>221000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>272000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>190000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>188000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>163000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>216000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>444000</v>
+      </c>
+      <c r="E58" s="3">
         <v>459000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>513000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>490000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>554000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>531000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>547000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>475000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>483000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>355000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>287000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>337000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>309000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>450000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>313000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>272000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>216000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>305000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>187000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>172000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>165000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>221000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>215000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>147000</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>160000</v>
       </c>
       <c r="AB58" s="3">
         <v>160000</v>
       </c>
       <c r="AC58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="AD58" s="3">
         <v>138000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E59" s="3">
         <v>626000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>587000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>687000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>664000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>635000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>601000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>565000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>540000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>490000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>513000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>463000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>524000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>488000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>515000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>452000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>427000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>434000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>359000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>370000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>339000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>345000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>331000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>438000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>393000</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>431000</v>
       </c>
       <c r="AC59" s="3">
         <v>431000</v>
       </c>
       <c r="AD59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="AE59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1458000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1453000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1529000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1598000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1757000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1632000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1552000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1438000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1413000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1183000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1076000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1010000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1022000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1274000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1189000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>959000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>905000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1036000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>784000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>769000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>742000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>787000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>818000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>775000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>741000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>754000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>785000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E61" s="3">
         <v>699000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>845000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>703000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>704000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>705000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>812000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>709000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>711000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>704000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>785000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>760000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>749000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>732000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>770000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>763000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>751000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>735000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>739000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>741000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>508000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>522000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>482000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>490000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>495000</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>499000</v>
       </c>
       <c r="AC61" s="3">
         <v>499000</v>
       </c>
       <c r="AD61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="AE61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E62" s="3">
         <v>634000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>514000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>672000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>710000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>798000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>705000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>820000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>763000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>786000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>710000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>661000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>712000</v>
       </c>
       <c r="P62" s="3">
         <v>712000</v>
       </c>
       <c r="Q62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="R62" s="3">
         <v>789000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>814000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>826000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>835000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>455000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>499000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>508000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>513000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>453000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>332000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>308000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>298000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>296000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5049,8 +5197,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5135,8 +5286,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5221,94 +5375,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2761000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2804000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2906000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2992000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3190000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3154000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3087000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2984000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2898000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2684000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2582000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2441000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2493000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2728000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2758000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2546000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2492000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2616000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1989000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2023000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1773000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1837000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1764000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1610000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1557000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1563000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1593000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5339,8 +5499,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5425,8 +5586,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5511,8 +5675,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5597,8 +5764,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5683,94 +5853,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5448000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5398000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5417000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5197000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5053000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4947000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4847000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4729000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4637000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4463000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4287000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3978000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3833000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3861000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4030000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3811000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3823000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3768000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3727000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3825000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3792000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3787000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3750000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3683000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3604000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3548000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>3465000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5855,8 +6031,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5941,8 +6120,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6027,94 +6209,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5044000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4991000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4996000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4752000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4620000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4515000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4416000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4273000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4172000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4009000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3817000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3535000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3380000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3427000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3591000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3400000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3409000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3360000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3318000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3412000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3403000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3418000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3397000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3383000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3305000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3245000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3162000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6199,185 +6387,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>223000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>146000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>108000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>103000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>121000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>94000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>176000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>179000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>265000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>154000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>179000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>58000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>57000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-91000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>35000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>32000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>23000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>81000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>58000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>85000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>103000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6408,8 +6605,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6417,85 +6615,88 @@
         <v>71000</v>
       </c>
       <c r="E83" s="3">
+        <v>71000</v>
+      </c>
+      <c r="F83" s="3">
         <v>72000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>61000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>52000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>50000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>47000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>45000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>37000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>36000</v>
       </c>
       <c r="P83" s="3">
         <v>36000</v>
       </c>
       <c r="Q83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="R83" s="3">
         <v>35000</v>
       </c>
       <c r="S83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="T83" s="3">
         <v>34000</v>
       </c>
       <c r="U83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="V83" s="3">
         <v>33000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>34000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>35000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>32000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>30000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>32000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>29000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>27000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>28000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6580,8 +6781,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6666,8 +6870,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6752,8 +6959,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6838,8 +7048,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6924,94 +7137,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E89" s="3">
         <v>93000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>299000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>260000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>106000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>164000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>82000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-150000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>257000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>34000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>106000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>101000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>31000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>146000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-107000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>72000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>102000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>56000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>47000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>21000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>183000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>128000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7042,94 +7261,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-111000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-107000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-94000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-112000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-161000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-136000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-101000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-127000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-96000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-99000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-52000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-53000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-88000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-105000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-73000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-83000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-67000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-37000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-55000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-40000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-42000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-36000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7214,8 +7437,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7300,94 +7526,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-191000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-112000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-206000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-97000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-176000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-174000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>69000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-249000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-36000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>17000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-69000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-127000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>37000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-340000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-17000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-29000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-50000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-15000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-156000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-45000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-139000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7418,67 +7650,68 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="E96" s="3">
         <v>-3000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="G96" s="3">
         <v>-2000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="I96" s="3">
         <v>-3000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="K96" s="3">
         <v>-2000</v>
       </c>
       <c r="L96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="M96" s="3">
         <v>-3000</v>
       </c>
       <c r="N96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="O96" s="3">
         <v>-2000</v>
       </c>
       <c r="P96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="Q96" s="3">
         <v>-3000</v>
       </c>
       <c r="R96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="S96" s="3">
         <v>-2000</v>
       </c>
       <c r="T96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-3000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-2000</v>
       </c>
       <c r="W96" s="3">
         <v>-2000</v>
@@ -7487,10 +7720,10 @@
         <v>-2000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-2000</v>
       </c>
       <c r="AA96" s="3">
         <v>-2000</v>
@@ -7499,13 +7732,16 @@
         <v>-2000</v>
       </c>
       <c r="AC96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7590,8 +7826,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7676,8 +7915,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7762,94 +8004,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-56000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-80000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>40000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>121000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>71000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-29000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-145000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>77000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-41000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>49000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-96000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>99000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>240000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-60000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>5000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>59000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>19000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-26000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7857,10 +8105,10 @@
         <v>-1000</v>
       </c>
       <c r="E101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1000</v>
       </c>
       <c r="G101" s="3">
         <v>1000</v>
@@ -7869,35 +8117,35 @@
         <v>1000</v>
       </c>
       <c r="I101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -7905,119 +8153,125 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3000</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>4000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="AC101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-115000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>129000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-30000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-22000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>51000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-135000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>116000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-21000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>55000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>27000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-34000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-36000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-38000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>SEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,394 +665,407 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2388000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2393000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2499000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2666000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2895000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2973000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2709000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2464000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2276000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2430000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2059000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1990000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1645000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1808000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1683000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1812000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1663000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1822000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1543000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1662000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1651000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1691000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1579000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1586000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1402000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1422000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1399000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1373000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1330000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2223000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2297000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2465000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2648000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2692000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2473000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2277000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2076000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2177000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1881000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1760000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1517000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1717000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1548000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1626000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1589000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1686000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1493000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1549000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1529000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1575000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1407000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1452000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1254000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1293000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1261000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1235000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1222000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E10" s="3">
         <v>96000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>266000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>247000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>281000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>236000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>187000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>253000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>178000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>230000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>128000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>91000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>135000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>186000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>74000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>136000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>50000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>113000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>122000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>116000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>172000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>134000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>148000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>129000</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>138000</v>
       </c>
       <c r="AD10" s="3">
         <v>138000</v>
       </c>
       <c r="AE10" s="3">
+        <v>138000</v>
+      </c>
+      <c r="AF10" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,8 +1097,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1173,8 +1187,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,8 +1279,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1351,8 +1371,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1440,8 +1463,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1496,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2321000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2397000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2562000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2502000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2740000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2781000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2563000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2375000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2164000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2265000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1967000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1848000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1606000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1797000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1620000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1715000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1669000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1769000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1577000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1619000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1614000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1659000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1482000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1545000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1331000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1368000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1333000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1305000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1288000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-63000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>164000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>155000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>192000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>146000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>89000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>112000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>165000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>142000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>63000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>97000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>53000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-34000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>43000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>37000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>32000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>97000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>41000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>71000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>54000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>66000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>68000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1681,453 +1714,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E20" s="3">
         <v>72000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>62000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>106000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-118000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>50000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>41000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>107000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>129000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>52000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>111000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-232000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>86000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>28000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>105000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-171000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>35000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-35000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>76000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>62000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>37000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>49000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>57000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E21" s="3">
         <v>139000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>70000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>342000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>219000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>126000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>169000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>186000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>159000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>251000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>241000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>334000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>128000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>158000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-133000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>218000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>115000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>105000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-95000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>106000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>57000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>94000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>147000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>165000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>120000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>142000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>153000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="3">
         <v>20000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12000</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6000</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>6000</v>
       </c>
       <c r="P22" s="3">
         <v>6000</v>
       </c>
       <c r="Q22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R22" s="3">
         <v>5000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>9000</v>
       </c>
       <c r="S22" s="3">
         <v>9000</v>
       </c>
       <c r="T22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="U22" s="3">
         <v>12000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>9000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>7000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>3000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>6000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E23" s="3">
         <v>48000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>253000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>145000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>62000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>119000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>133000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>104000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>199000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>269000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>85000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>116000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-174000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>174000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>69000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>65000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-141000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>60000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>11000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>54000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>107000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>124000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>84000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>112000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>119000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>29000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-46000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-69000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>142000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-71000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-65000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>26000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>26000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-27000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>43000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>25000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>28000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>15000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2215,186 +2264,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E26" s="3">
         <v>52000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>224000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>146000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>108000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>104000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>122000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>94000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>176000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>179000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>265000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>154000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-103000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>179000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>58000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>57000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-76000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>34000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>28000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>134000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>81000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>59000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>84000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>104000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E27" s="3">
         <v>52000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>223000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>146000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>108000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>103000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>121000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>94000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>176000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>179000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>265000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>154000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-103000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>179000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>58000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>57000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-77000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>35000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>28000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>135000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>81000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>58000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>85000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>103000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2482,8 +2540,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2523,8 +2584,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2541,23 +2602,23 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-14000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>4000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-112000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2571,8 +2632,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2660,8 +2724,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2749,186 +2816,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-72000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-62000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-106000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>118000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-50000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-41000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-107000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-129000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-52000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-111000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>232000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-86000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-28000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-105000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>171000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-35000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>10000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>35000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-76000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-62000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-37000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-49000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-57000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-65000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E33" s="3">
         <v>52000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>223000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>146000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>108000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>103000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>121000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>94000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>176000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>179000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>265000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>154000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-103000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>179000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>58000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>57000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-91000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>35000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>32000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>23000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>81000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>58000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>85000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>103000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3016,191 +3092,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E35" s="3">
         <v>52000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>223000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>146000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>108000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>103000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>121000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>94000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>176000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>179000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>265000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>154000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-103000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>179000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>58000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>57000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-91000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>35000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>32000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>23000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>81000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>58000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>85000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>103000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3232,8 +3317,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3265,782 +3351,807 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E41" s="3">
         <v>68000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>199000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>70000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>95000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>94000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>75000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>92000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>65000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>76000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>92000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>79000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>101000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>125000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>121000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>110000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>59000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>194000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>78000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>79000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>100000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>116000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>61000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>70000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>43000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>77000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1134000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1225000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1213000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1086000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1023000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1101000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1295000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1416000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1516000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1483000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1384000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1465000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1245000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1177000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1125000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1434000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1418000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1440000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1488000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1336000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1590000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1266000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1265000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1576000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1358000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1391000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1286000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1277000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>1180000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>727000</v>
+      </c>
+      <c r="E43" s="3">
         <v>816000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>834000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>923000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>884000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>944000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>843000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>762000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>657000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>642000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>672000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>532000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>525000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>551000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>691000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>646000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>529000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>546000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>504000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>551000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>506000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>521000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>608000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>482000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>622000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>605000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>606000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>627000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1516000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1610000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1587000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1670000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1816000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1844000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1698000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1663000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1542000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1497000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1360000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1178000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1062000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>989000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1122000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1086000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>916000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>871000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>988000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>815000</v>
-      </c>
-      <c r="W44" s="3">
-        <v>874000</v>
       </c>
       <c r="X44" s="3">
         <v>874000</v>
       </c>
       <c r="Y44" s="3">
+        <v>874000</v>
+      </c>
+      <c r="Z44" s="3">
         <v>797000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>780000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>828000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>722000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>842000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>762000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E45" s="3">
         <v>147000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>148000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>139000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>162000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>157000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>139000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>131000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>137000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>164000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>130000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>103000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>91000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>118000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>115000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>198000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>112000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>107000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>143000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>131000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>124000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>126000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>133000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>174000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>120000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>119000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>109000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>105000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3866000</v>
+        <v>3605000</v>
       </c>
       <c r="E46" s="3">
         <v>3866000</v>
       </c>
       <c r="F46" s="3">
+        <v>3866000</v>
+      </c>
+      <c r="G46" s="3">
         <v>4017000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3955000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4141000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4069000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4047000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3914000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3878000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3611000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3354000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3015000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2914000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3154000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3414000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3096000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3074000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3182000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3027000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3172000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2866000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2903000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3128000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2989000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2907000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2886000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2848000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>2627000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>933000</v>
+      </c>
+      <c r="E47" s="3">
         <v>734000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>759000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>753000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>903000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>833000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>679000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>651000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>656000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>666000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>677000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>698000</v>
       </c>
       <c r="O47" s="3">
         <v>698000</v>
       </c>
       <c r="P47" s="3">
+        <v>698000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>706000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>731000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>735000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>734000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>783000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>789000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>804000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>823000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>849000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>866000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>851000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>863000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>843000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>805000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>799000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>948000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2689000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2680000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2691000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2630000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2587000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2514000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2388000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2286000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2160000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2032000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1972000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1918000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1908000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1919000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1877000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1801000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1741000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1696000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1160000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1098000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1104000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1126000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1077000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1064000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1034000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1024000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1006000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E49" s="3">
         <v>162000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>161000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>185000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>194000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>198000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>161000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>208000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>165000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>164000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>172000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>221000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>164000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>163000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>164000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>222000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>165000</v>
       </c>
       <c r="T49" s="3">
         <v>165000</v>
       </c>
       <c r="U49" s="3">
+        <v>165000</v>
+      </c>
+      <c r="V49" s="3">
         <v>166000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>236000</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
@@ -4048,11 +4159,11 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3">
         <v>22000</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>8</v>
@@ -4060,14 +4171,17 @@
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE49" s="3">
         <v>22000</v>
       </c>
-      <c r="AE49" s="3" t="s">
+      <c r="AF49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4155,8 +4269,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4244,97 +4361,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E52" s="3">
         <v>354000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>329000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>256000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>62000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>51000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>246000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>209000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>236000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>202000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>201000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>154000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>181000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>182000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>187000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>101000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>150000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>138000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>143000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>80000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>342000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>357000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>360000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>83000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>77000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>78000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>93000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>80000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4422,97 +4545,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7596000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7805000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7795000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7902000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7744000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7810000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7669000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7503000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7257000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7070000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6693000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6399000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5976000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5873000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6155000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6349000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5946000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5901000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5976000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5307000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5435000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5176000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5255000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5161000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4993000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4862000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4808000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4755000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>4643000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4544,8 +4673,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4577,542 +4707,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>369000</v>
+      </c>
+      <c r="E57" s="3">
         <v>348000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>368000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>429000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>421000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>539000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>466000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>404000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>398000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>390000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>338000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>276000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>210000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>189000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>336000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>368000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>235000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>262000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>297000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>238000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>227000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>238000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>221000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>272000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>190000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>188000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>163000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>216000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E58" s="3">
         <v>444000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>459000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>513000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>490000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>554000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>531000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>547000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>475000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>483000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>355000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>287000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>337000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>309000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>450000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>313000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>272000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>216000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>305000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>187000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>172000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>165000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>221000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>215000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>147000</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>160000</v>
       </c>
       <c r="AC58" s="3">
         <v>160000</v>
       </c>
       <c r="AD58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="AE58" s="3">
         <v>138000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>626000</v>
+      </c>
+      <c r="E59" s="3">
         <v>666000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>626000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>587000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>687000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>664000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>635000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>601000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>565000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>540000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>490000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>513000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>463000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>524000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>488000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>515000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>452000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>427000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>434000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>359000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>370000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>339000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>345000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>331000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>438000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>393000</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>431000</v>
       </c>
       <c r="AD59" s="3">
         <v>431000</v>
       </c>
       <c r="AE59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="AF59" s="3">
         <v>434000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1165000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1458000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1453000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1529000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1598000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1757000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1632000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1552000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1438000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1413000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1183000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1076000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1010000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1022000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1274000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1189000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>959000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>905000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1036000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>784000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>769000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>742000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>787000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>818000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>775000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>741000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>754000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>785000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>793000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E61" s="3">
         <v>698000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>699000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>845000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>703000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>704000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>705000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>812000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>709000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>711000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>704000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>785000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>760000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>749000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>732000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>770000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>763000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>751000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>735000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>739000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>741000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>508000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>522000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>482000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>490000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>495000</v>
-      </c>
-      <c r="AC61" s="3">
-        <v>499000</v>
       </c>
       <c r="AD61" s="3">
         <v>499000</v>
       </c>
       <c r="AE61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="AF61" s="3">
         <v>503000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>552000</v>
+      </c>
+      <c r="E62" s="3">
         <v>587000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>634000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>514000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>672000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>710000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>798000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>705000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>820000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>763000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>786000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>710000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>661000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>712000</v>
       </c>
       <c r="Q62" s="3">
         <v>712000</v>
       </c>
       <c r="R62" s="3">
+        <v>712000</v>
+      </c>
+      <c r="S62" s="3">
         <v>789000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>814000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>826000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>835000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>455000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>499000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>508000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>513000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>453000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>332000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>308000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>298000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>296000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5200,8 +5349,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5289,8 +5441,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5378,97 +5533,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2431000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2761000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2804000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2906000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2992000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3190000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3154000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3087000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2984000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2898000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2684000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2582000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2441000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2493000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2728000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2758000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2546000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2492000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2616000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1989000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2023000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1773000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1837000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1764000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1610000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1557000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1563000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1593000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5500,8 +5661,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5589,8 +5751,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5678,8 +5843,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5767,8 +5935,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5856,97 +6027,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5572000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5448000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5398000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5417000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5197000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5053000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4947000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4847000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4729000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4637000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4463000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4287000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3978000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3833000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3861000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4030000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3811000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3823000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3768000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3727000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3825000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3792000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3787000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3750000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3683000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3604000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>3548000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>3465000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6034,8 +6211,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6123,8 +6303,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6212,97 +6395,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5165000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5044000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4991000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4996000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4752000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4620000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4515000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4416000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4273000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4172000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4009000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3817000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3535000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3380000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3427000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3591000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3400000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3409000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3360000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3318000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3412000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3403000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3418000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3397000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3383000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3305000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3245000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3162000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>3066000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6390,191 +6579,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E81" s="3">
         <v>52000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>223000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>146000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>108000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>103000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>121000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>94000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>176000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>179000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>265000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>154000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-103000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>179000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>58000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>57000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-91000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>35000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>32000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>23000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>81000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>58000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>85000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>103000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6606,97 +6804,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>71000</v>
+        <v>72000</v>
       </c>
       <c r="E83" s="3">
         <v>71000</v>
       </c>
       <c r="F83" s="3">
+        <v>71000</v>
+      </c>
+      <c r="G83" s="3">
         <v>72000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>61000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>52000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>50000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>37000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>36000</v>
       </c>
       <c r="Q83" s="3">
         <v>36000</v>
       </c>
       <c r="R83" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="S83" s="3">
         <v>35000</v>
       </c>
       <c r="T83" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="U83" s="3">
         <v>34000</v>
       </c>
       <c r="V83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="W83" s="3">
         <v>33000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>34000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>35000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>32000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>30000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>32000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>29000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>27000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>28000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6784,8 +6986,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6873,8 +7078,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6962,8 +7170,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7051,8 +7262,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7140,97 +7354,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E89" s="3">
         <v>111000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>93000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>299000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>260000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>106000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>164000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>82000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-150000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>257000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>34000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>106000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-106000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>101000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>31000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>146000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-107000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>72000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>102000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>56000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>8000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>47000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>21000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>183000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-6000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>128000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7262,97 +7482,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-108000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-111000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-107000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-94000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-112000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-161000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-136000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-101000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-127000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-96000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-99000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-52000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-88000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-105000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-73000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-83000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-67000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-37000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-55000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-40000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-42000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-36000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7440,8 +7664,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7529,97 +7756,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-91000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-191000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-112000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-206000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-97000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-176000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-174000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>69000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-249000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-36000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>17000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>6000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-69000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-127000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>37000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-340000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-29000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-50000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-15000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-156000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-45000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-139000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-121000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7651,8 +7884,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7660,61 +7894,61 @@
         <v>-2000</v>
       </c>
       <c r="E96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="F96" s="3">
         <v>-3000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="H96" s="3">
         <v>-2000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="J96" s="3">
         <v>-3000</v>
       </c>
       <c r="K96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="L96" s="3">
         <v>-2000</v>
       </c>
       <c r="M96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="N96" s="3">
         <v>-3000</v>
       </c>
       <c r="O96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="P96" s="3">
         <v>-2000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="R96" s="3">
         <v>-3000</v>
       </c>
       <c r="S96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="T96" s="3">
         <v>-2000</v>
       </c>
       <c r="U96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-3000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-2000</v>
       </c>
       <c r="X96" s="3">
         <v>-2000</v>
@@ -7723,10 +7957,10 @@
         <v>-2000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-2000</v>
       </c>
       <c r="AB96" s="3">
         <v>-2000</v>
@@ -7735,13 +7969,16 @@
         <v>-2000</v>
       </c>
       <c r="AD96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7829,8 +8066,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7918,8 +8158,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8007,111 +8250,117 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-305000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-35000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-56000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-80000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>40000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>121000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>71000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-29000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-145000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>77000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-41000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>49000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-96000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>99000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>240000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>5000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>59000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-16000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>19000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-26000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-1000</v>
       </c>
       <c r="F101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1000</v>
       </c>
       <c r="H101" s="3">
         <v>1000</v>
@@ -8120,35 +8369,35 @@
         <v>1000</v>
       </c>
       <c r="J101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -8156,122 +8405,128 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3000</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>4000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="AD101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AE101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-115000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>129000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-30000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>51000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-135000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>116000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>55000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-9000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>27000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-34000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-36000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-38000</v>
       </c>
     </row>
